--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardware\63_Glowing_Polyhedrons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48AA3F5A-3296-4F6D-A56C-8299F12BD58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA725455-B396-4ADB-8D04-E6B6323D60C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{5BF2D058-20B1-4E68-B932-3EECD9DE5D4B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
   <si>
     <t>Cube</t>
   </si>
@@ -36,9 +36,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Full coverage with equal current</t>
-  </si>
-  <si>
     <t>Triangular Prism</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Dodecahedron</t>
   </si>
   <si>
-    <t xml:space="preserve">Path length </t>
-  </si>
-  <si>
     <t>Vertices</t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>Stellated Octahedron</t>
+  </si>
+  <si>
+    <t>L=1</t>
+  </si>
+  <si>
+    <t>Taps for full coverage, equal current</t>
   </si>
 </sst>
 </file>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2730FE3-BE20-49D8-AF28-F682CEA2B90A}">
-  <dimension ref="D2:K21"/>
+  <dimension ref="D5:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K18"/>
+      <selection activeCell="X11" sqref="X11:X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,29 +542,31 @@
     <col min="7" max="9" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:25" x14ac:dyDescent="0.3">
       <c r="G5" s="11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="O5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="4:25" x14ac:dyDescent="0.3">
       <c r="E6" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
@@ -578,8 +580,41 @@
       <c r="K6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="O6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4</v>
+      </c>
+      <c r="S6" s="1">
+        <v>5</v>
+      </c>
+      <c r="T6" s="1">
+        <v>6</v>
+      </c>
+      <c r="U6" s="1">
+        <v>7</v>
+      </c>
+      <c r="V6" s="1">
+        <v>8</v>
+      </c>
+      <c r="W6" s="1">
+        <v>9</v>
+      </c>
+      <c r="X6" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D7" s="9" t="s">
         <v>1</v>
       </c>
@@ -605,9 +640,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D8" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="5">
         <v>6</v>
@@ -631,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
         <v>0</v>
       </c>
@@ -657,9 +692,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D10" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="5">
         <v>6</v>
@@ -683,9 +718,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D11" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="5">
         <v>10</v>
@@ -709,9 +744,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D12" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="5">
         <v>12</v>
@@ -735,9 +770,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D13" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="5">
         <v>8</v>
@@ -761,9 +796,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D14" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="5">
         <v>12</v>
@@ -787,9 +822,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D15" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="5">
         <v>12</v>
@@ -813,9 +848,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D16" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5">
         <v>14</v>
@@ -841,7 +876,7 @@
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="5">
         <v>11</v>
@@ -867,7 +902,7 @@
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D18" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="5">
         <v>20</v>
@@ -876,13 +911,13 @@
         <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>2</v>
@@ -893,7 +928,7 @@
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D19" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="5">
         <v>12</v>
@@ -919,7 +954,7 @@
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D20" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" s="5">
         <v>14</v>
@@ -945,7 +980,7 @@
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D21" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E21" s="8">
         <v>14</v>
@@ -970,8 +1005,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G5:K5"/>
+    <mergeCell ref="O5:S5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardware\63_Glowing_Polyhedrons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA725455-B396-4ADB-8D04-E6B6323D60C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4634AD1-F6E8-4DFB-B044-4FB73722613B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{5BF2D058-20B1-4E68-B932-3EECD9DE5D4B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Cube two taps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
   <si>
     <t>Cube</t>
   </si>
@@ -88,6 +89,177 @@
   </si>
   <si>
     <t>Taps for full coverage, equal current</t>
+  </si>
+  <si>
+    <t>=== Cube | L=3: maximize coverage with 2 endpoints ===</t>
+  </si>
+  <si>
+    <t>Fixed endpoints: 2 | Paths: 6 | Edge coverage: 12</t>
+  </si>
+  <si>
+    <t>Endpoint set: {0, 7}</t>
+  </si>
+  <si>
+    <t>Endpoint usage counts: {0: 6, 7: 6}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 1: vertices [7, 6, 4, 0] | len=3 | edges=[(7, 6), (6, 4), (4, 0)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 2: vertices [7, 5, 1, 0] | len=3 | edges=[(7, 5), (5, 1), (1, 0)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 3: vertices [7, 3, 2, 0] | len=3 | edges=[(7, 3), (3, 2), (2, 0)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 4: vertices [7, 6, 2, 0] | len=3 | edges=[(7, 6), (6, 2), (2, 0)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 5: vertices [7, 5, 4, 0] | len=3 | edges=[(7, 5), (5, 4), (4, 0)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 6: vertices [7, 3, 1, 0] | len=3 | edges=[(7, 3), (3, 1), (1, 0)]</t>
+  </si>
+  <si>
+    <t>Total edges covered: 18</t>
+  </si>
+  <si>
+    <t>Orientation (directed edges): [(1, 0), (2, 0), (3, 1), (3, 2), (4, 0), (5, 1), (5, 4), (6, 2), (6, 4), (7, 3), (7, 5), (7, 6)]</t>
+  </si>
+  <si>
+    <t>=== Branching Analysis ===</t>
+  </si>
+  <si>
+    <t>Equal current coverage: NO (range 0.167 to 0.333)</t>
+  </si>
+  <si>
+    <t>Edge (7, 6): current=0.333, branches=6, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (4, 0): current=0.333, branches=6, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (2, 0): current=0.333, branches=6, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (7, 5): current=0.333, branches=6, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (1, 0): current=0.333, branches=6, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (7, 3): current=0.333, branches=6, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (6, 4): current=0.167, branches=6, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (6, 2): current=0.167, branches=6, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (5, 4): current=0.167, branches=6, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (5, 1): current=0.167, branches=6, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (3, 2): current=0.167, branches=6, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (3, 1): current=0.167, branches=6, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>=== Polarity Analysis ===</t>
+  </si>
+  <si>
+    <t>Vertex 0: Cathode</t>
+  </si>
+  <si>
+    <t>Vertex 7: Anode</t>
+  </si>
+  <si>
+    <t>Design classification: Fully DC (all vertices are either pure Anode or pure Cathode)</t>
+  </si>
+  <si>
+    <t>=== Sneak Path Analysis ===</t>
+  </si>
+  <si>
+    <t>NO SNEAK PATHS: DC bias does not create shorter paths than solver solution</t>
+  </si>
+  <si>
+    <t>All paths maintain minimum length of 3</t>
+  </si>
+  <si>
+    <t>=== Driving Scheme Analysis ===</t>
+  </si>
+  <si>
+    <t>Path 1: 7 -&gt; 6 -&gt; 4 -&gt; 0 | 0=C 7=A</t>
+  </si>
+  <si>
+    <t>Path 2: 7 -&gt; 5 -&gt; 1 -&gt; 0 | 0=C 7=A</t>
+  </si>
+  <si>
+    <t>Path 3: 7 -&gt; 3 -&gt; 2 -&gt; 0 | 0=C 7=A</t>
+  </si>
+  <si>
+    <t>Path 4: 7 -&gt; 6 -&gt; 2 -&gt; 0 | 0=C 7=A</t>
+  </si>
+  <si>
+    <t>Path 5: 7 -&gt; 5 -&gt; 4 -&gt; 0 | 0=C 7=A</t>
+  </si>
+  <si>
+    <t>Path 6: 7 -&gt; 3 -&gt; 1 -&gt; 0 | 0=C 7=A</t>
+  </si>
+  <si>
+    <t>Bipolar driving scheme found</t>
+  </si>
+  <si>
+    <t>=== Cube | L=3: maximize coverage with 2 endpoints (equal current) ===</t>
+  </si>
+  <si>
+    <t>Fixed endpoints: 2 | Paths: 3 | Edge coverage: 9</t>
+  </si>
+  <si>
+    <t>Endpoint usage counts: {0: 3, 7: 3}</t>
+  </si>
+  <si>
+    <t>Total edges covered: 9</t>
+  </si>
+  <si>
+    <t>Coverage ratio: 0.750 (9/12)</t>
+  </si>
+  <si>
+    <t>Orientation (directed edges): [(1, 0), (1, 3), (2, 0), (2, 6), (3, 2), (4, 0), (4, 5), (5, 1), (6, 4), (7, 3), (7, 5), (7, 6)]</t>
+  </si>
+  <si>
+    <t>Equal current coverage: YES (all edges carry 0.333 current)</t>
+  </si>
+  <si>
+    <t>Edge (7, 6): current=0.333, branches=3, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (6, 4): current=0.333, branches=3, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (4, 0): current=0.333, branches=3, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (7, 5): current=0.333, branches=3, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (5, 1): current=0.333, branches=3, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (1, 0): current=0.333, branches=3, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (7, 3): current=0.333, branches=3, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (3, 2): current=0.333, branches=3, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Edge (2, 0): current=0.333, branches=3, paths=[7,0]</t>
   </si>
 </sst>
 </file>
@@ -193,13 +365,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -209,13 +381,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,6 +403,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281941</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>110166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83821</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51EBCB8F-85B9-4A80-871A-98EB2FB44EBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2110741" y="658806"/>
+          <a:ext cx="3459480" cy="3791987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>377836</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5569AC56-EFAC-4976-87D8-A9ED5B982D72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12603480" y="777240"/>
+          <a:ext cx="4629796" cy="5096586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,7 +798,7 @@
   <dimension ref="D5:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11:X12"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,20 +808,20 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="O5" s="11" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="O5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
     </row>
     <row r="6" spans="4:25" x14ac:dyDescent="0.3">
       <c r="E6" s="10" t="s">
@@ -979,7 +1244,7 @@
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="8">
@@ -988,19 +1253,19 @@
       <c r="F21" s="8">
         <v>36</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>14</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" s="12" t="s">
+      <c r="H21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1012,4 +1277,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB2F16E-ABB8-42B9-8872-AED4E45F0FF4}">
+  <dimension ref="K5:U51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="85.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="85.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="U17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>34</v>
+      </c>
+      <c r="U19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="U20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="U21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="U24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>43</v>
+      </c>
+      <c r="U29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>44</v>
+      </c>
+      <c r="U30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>45</v>
+      </c>
+      <c r="U31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+      <c r="U32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>47</v>
+      </c>
+      <c r="U34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>48</v>
+      </c>
+      <c r="U35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>49</v>
+      </c>
+      <c r="U36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="U38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>51</v>
+      </c>
+      <c r="U39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>53</v>
+      </c>
+      <c r="U41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K43" t="s">
+        <v>54</v>
+      </c>
+      <c r="U43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardware\63_Glowing_Polyhedrons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4634AD1-F6E8-4DFB-B044-4FB73722613B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA349686-3E29-41C7-B92F-0B803CE802D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{5BF2D058-20B1-4E68-B932-3EECD9DE5D4B}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{5BF2D058-20B1-4E68-B932-3EECD9DE5D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Cube two taps" sheetId="2" r:id="rId2"/>
+    <sheet name="Octahedron" sheetId="4" r:id="rId3"/>
+    <sheet name="Cuboctahedron" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="162">
   <si>
     <t>Cube</t>
   </si>
@@ -260,6 +262,258 @@
   </si>
   <si>
     <t>Edge (2, 0): current=0.333, branches=3, paths=[7,0]</t>
+  </si>
+  <si>
+    <t>Coverage with two taps, equal current</t>
+  </si>
+  <si>
+    <t>Edge coverage with two taps, non-equal current</t>
+  </si>
+  <si>
+    <t>=== Octahedron | L=3: maximize coverage with 2 endpoints ===</t>
+  </si>
+  <si>
+    <t>Fixed endpoints: 2 | Paths: 4 | Edge coverage: 12</t>
+  </si>
+  <si>
+    <t>Endpoint set: {0, 1}</t>
+  </si>
+  <si>
+    <t>Endpoint usage counts: {0: 4, 1: 4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 1: vertices [0, 5, 3, 1] | len=3 | edges=[(0, 5), (5, 3), (3, 1)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 2: vertices [0, 4, 2, 1] | len=3 | edges=[(0, 4), (4, 2), (2, 1)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 3: vertices [1, 5, 2, 0] | len=3 | edges=[(1, 5), (5, 2), (2, 0)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 4: vertices [1, 4, 3, 0] | len=3 | edges=[(1, 4), (4, 3), (3, 0)]</t>
+  </si>
+  <si>
+    <t>Total edges covered: 12</t>
+  </si>
+  <si>
+    <t>Orientation (directed edges): [(0, 4), (0, 5), (1, 4), (1, 5), (2, 0), (2, 1), (3, 0), (3, 1), (4, 2), (4, 3), (5, 2), (5, 3)]</t>
+  </si>
+  <si>
+    <t>Equal current coverage: YES (all edges carry 0.500 current)</t>
+  </si>
+  <si>
+    <t>Edge (0, 5): current=0.500, branches=4, paths=[0,1]</t>
+  </si>
+  <si>
+    <t>Edge (5, 3): current=0.500, branches=4, paths=[0,1] [1,0]</t>
+  </si>
+  <si>
+    <t>Edge (3, 1): current=0.500, branches=4, paths=[0,1]</t>
+  </si>
+  <si>
+    <t>Edge (5, 2): current=0.500, branches=4, paths=[0,1] [1,0]</t>
+  </si>
+  <si>
+    <t>Edge (2, 1): current=0.500, branches=4, paths=[0,1]</t>
+  </si>
+  <si>
+    <t>Edge (0, 4): current=0.500, branches=4, paths=[0,1]</t>
+  </si>
+  <si>
+    <t>Edge (4, 3): current=0.500, branches=4, paths=[0,1] [1,0]</t>
+  </si>
+  <si>
+    <t>Edge (4, 2): current=0.500, branches=4, paths=[0,1] [1,0]</t>
+  </si>
+  <si>
+    <t>Edge (1, 5): current=0.500, branches=4, paths=[1,0]</t>
+  </si>
+  <si>
+    <t>Edge (3, 0): current=0.500, branches=4, paths=[1,0]</t>
+  </si>
+  <si>
+    <t>Edge (2, 0): current=0.500, branches=4, paths=[1,0]</t>
+  </si>
+  <si>
+    <t>Edge (1, 4): current=0.500, branches=4, paths=[1,0]</t>
+  </si>
+  <si>
+    <t>Vertex 0: Alternating</t>
+  </si>
+  <si>
+    <t>Vertex 1: Alternating</t>
+  </si>
+  <si>
+    <t>Design classification: Mixed polarity (contains Alternating vertices)</t>
+  </si>
+  <si>
+    <t>Path 1: 0 -&gt; 5 -&gt; 3 -&gt; 1 | 0=A 1=C</t>
+  </si>
+  <si>
+    <t>Path 2: 0 -&gt; 4 -&gt; 2 -&gt; 1 | 0=A 1=C</t>
+  </si>
+  <si>
+    <t>Path 3: 1 -&gt; 5 -&gt; 2 -&gt; 0 | 0=C 1=A</t>
+  </si>
+  <si>
+    <t>Path 4: 1 -&gt; 4 -&gt; 3 -&gt; 0 | 0=C 1=A</t>
+  </si>
+  <si>
+    <t>=== Cuboctahedron | L=3: maximize coverage with 6 endpoints (equal current) ===</t>
+  </si>
+  <si>
+    <t>Fixed endpoints: 6 | Paths: 8 | Edge coverage: 24</t>
+  </si>
+  <si>
+    <t>Endpoint set: {2, 3, 4, 5, 7, 9}</t>
+  </si>
+  <si>
+    <t>Endpoint usage counts: {2: 4, 3: 4, 4: 2, 5: 2, 7: 2, 9: 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 1: vertices [2, 0, 1, 3] | len=3 | edges=[(2, 0), (0, 1), (1, 3)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 2: vertices [3, 4, 0, 5] | len=3 | edges=[(3, 4), (4, 0), (0, 5)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 3: vertices [3, 8, 7, 2] | len=3 | edges=[(3, 8), (8, 7), (7, 2)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 4: vertices [4, 11, 10, 9] | len=3 | edges=[(4, 11), (11, 10), (10, 9)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 5: vertices [5, 10, 6, 2] | len=3 | edges=[(5, 10), (10, 6), (6, 2)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 6: vertices [7, 6, 5, 4] | len=3 | edges=[(7, 6), (6, 5), (5, 4)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 7: vertices [7, 9, 11, 3] | len=3 | edges=[(7, 9), (9, 11), (11, 3)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Path 8: vertices [9, 8, 1, 2] | len=3 | edges=[(9, 8), (8, 1), (1, 2)]</t>
+  </si>
+  <si>
+    <t>Total edges covered: 24</t>
+  </si>
+  <si>
+    <t>Orientation (directed edges): [(0, 1), (0, 5), (1, 2), (1, 3), (2, 0), (3, 4), (3, 8), (4, 0), (4, 11), (5, 4), (5, 10), (6, 2), (6, 5), (7, 2), (7, 6), (7, 9), (8, 1), (8, 7), (9, 8), (9, 11), (10, 6), (10, 9), (11, 3), (11, 10)]</t>
+  </si>
+  <si>
+    <t>Equal current coverage: YES (all edges carry 1.000 current)</t>
+  </si>
+  <si>
+    <t>Edge (2, 0): current=1.000, branches=1, paths=[2,3]</t>
+  </si>
+  <si>
+    <t>Edge (0, 1): current=1.000, branches=1, paths=[2,3]</t>
+  </si>
+  <si>
+    <t>Edge (1, 3): current=1.000, branches=1, paths=[2,3]</t>
+  </si>
+  <si>
+    <t>Edge (3, 4): current=1.000, branches=1, paths=[3,5]</t>
+  </si>
+  <si>
+    <t>Edge (4, 0): current=1.000, branches=1, paths=[3,5]</t>
+  </si>
+  <si>
+    <t>Edge (0, 5): current=1.000, branches=1, paths=[3,5]</t>
+  </si>
+  <si>
+    <t>Edge (3, 8): current=1.000, branches=2, paths=[3,2]</t>
+  </si>
+  <si>
+    <t>Edge (8, 7): current=1.000, branches=2, paths=[3,2] [9,2]</t>
+  </si>
+  <si>
+    <t>Edge (7, 2): current=1.000, branches=2, paths=[3,2] [9,2]</t>
+  </si>
+  <si>
+    <t>Edge (8, 1): current=1.000, branches=2, paths=[3,2] [9,2]</t>
+  </si>
+  <si>
+    <t>Edge (1, 2): current=1.000, branches=2, paths=[3,2] [9,2]</t>
+  </si>
+  <si>
+    <t>Edge (4, 11): current=1.000, branches=1, paths=[4,9]</t>
+  </si>
+  <si>
+    <t>Edge (11, 10): current=1.000, branches=1, paths=[4,9]</t>
+  </si>
+  <si>
+    <t>Edge (10, 9): current=1.000, branches=1, paths=[4,9]</t>
+  </si>
+  <si>
+    <t>Edge (5, 10): current=1.000, branches=1, paths=[5,2]</t>
+  </si>
+  <si>
+    <t>Edge (10, 6): current=1.000, branches=1, paths=[5,2]</t>
+  </si>
+  <si>
+    <t>Edge (6, 2): current=1.000, branches=1, paths=[5,2]</t>
+  </si>
+  <si>
+    <t>Edge (7, 6): current=1.000, branches=1, paths=[7,4]</t>
+  </si>
+  <si>
+    <t>Edge (6, 5): current=1.000, branches=1, paths=[7,4]</t>
+  </si>
+  <si>
+    <t>Edge (5, 4): current=1.000, branches=1, paths=[7,4]</t>
+  </si>
+  <si>
+    <t>Edge (7, 9): current=1.000, branches=1, paths=[7,3]</t>
+  </si>
+  <si>
+    <t>Edge (9, 11): current=1.000, branches=1, paths=[7,3]</t>
+  </si>
+  <si>
+    <t>Edge (11, 3): current=1.000, branches=1, paths=[7,3]</t>
+  </si>
+  <si>
+    <t>Edge (9, 8): current=1.000, branches=2, paths=[9,2]</t>
+  </si>
+  <si>
+    <t>Vertex 2: Alternating</t>
+  </si>
+  <si>
+    <t>Vertex 3: Alternating</t>
+  </si>
+  <si>
+    <t>Vertex 4: Alternating</t>
+  </si>
+  <si>
+    <t>Vertex 5: Alternating</t>
+  </si>
+  <si>
+    <t>Vertex 9: Alternating</t>
+  </si>
+  <si>
+    <t>Path 1: 2 -&gt; 0 -&gt; 1 -&gt; 3 | 2=A 3=C 4=A 5=A 7=A 9=A</t>
+  </si>
+  <si>
+    <t>Path 2: 3 -&gt; 4 -&gt; 0 -&gt; 5 | 2=A 3=A 4=A 5=C 7=A 9=A</t>
+  </si>
+  <si>
+    <t>Path 3: 3 -&gt; 8 -&gt; 7 -&gt; 2 | 2=C 3=A 4=A 5=A 7=A 9=A</t>
+  </si>
+  <si>
+    <t>Path 4: 4 -&gt; 11 -&gt; 10 -&gt; 9 | 2=A 3=A 4=A 5=A 7=C 9=C</t>
+  </si>
+  <si>
+    <t>Path 5: 5 -&gt; 10 -&gt; 6 -&gt; 2 | 2=C 3=A 4=A 5=A 7=C 9=A</t>
+  </si>
+  <si>
+    <t>Path 6: 7 -&gt; 6 -&gt; 5 -&gt; 4 | 2=A 3=C 4=C 5=A 7=A 9=A</t>
+  </si>
+  <si>
+    <t>Path 7: 7 -&gt; 9 -&gt; 11 -&gt; 3 | 2=A 3=C 4=A 5=A 7=A 9=A</t>
+  </si>
+  <si>
+    <t>Path 8: 9 -&gt; 8 -&gt; 1 -&gt; 2 | 2=C 3=A 4=A 5=A 7=C 9=A</t>
   </si>
 </sst>
 </file>
@@ -283,7 +537,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +574,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -351,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,6 +645,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,6 +753,104 @@
         <a:xfrm>
           <a:off x="12603480" y="777240"/>
           <a:ext cx="4629796" cy="5096586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>240777</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10ED1AB-6BD5-450D-9C57-76548C13D24C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1592580" y="2019300"/>
+          <a:ext cx="5353797" cy="4963218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>336046</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>149316</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3BC62B-D5E6-473B-979F-7888CB2B7A45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1554480" y="617220"/>
+          <a:ext cx="5487166" cy="5201376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -795,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2730FE3-BE20-49D8-AF28-F682CEA2B90A}">
-  <dimension ref="D5:Y21"/>
+  <dimension ref="D5:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,23 +1171,30 @@
     <col min="7" max="9" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="G5" s="13" t="s">
+    <row r="5" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="G5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="O5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-    </row>
-    <row r="6" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="O5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="AA5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+    </row>
+    <row r="6" spans="4:32" x14ac:dyDescent="0.3">
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
@@ -845,22 +1216,22 @@
       <c r="K6" s="1">
         <v>5</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="P6" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="14">
         <v>3</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="14">
         <v>4</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="14">
         <v>5</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="14">
         <v>6</v>
       </c>
       <c r="U6" s="1">
@@ -878,8 +1249,26 @@
       <c r="Y6" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="AA6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D7" s="9" t="s">
         <v>1</v>
       </c>
@@ -904,8 +1293,44 @@
       <c r="K7" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>3</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D8" s="9" t="s">
         <v>3</v>
       </c>
@@ -930,8 +1355,44 @@
       <c r="K8" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>7</v>
+      </c>
+      <c r="R8" s="7">
+        <v>6</v>
+      </c>
+      <c r="S8" s="7">
+        <v>5</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
         <v>0</v>
       </c>
@@ -956,8 +1417,44 @@
       <c r="K9" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>12</v>
+      </c>
+      <c r="R9" s="13">
+        <v>12</v>
+      </c>
+      <c r="S9" s="7">
+        <v>9</v>
+      </c>
+      <c r="T9" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D10" s="9" t="s">
         <v>4</v>
       </c>
@@ -982,8 +1479,44 @@
       <c r="K10" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>12</v>
+      </c>
+      <c r="R10" s="7">
+        <v>6</v>
+      </c>
+      <c r="S10" s="7">
+        <v>5</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D11" s="9" t="s">
         <v>5</v>
       </c>
@@ -1008,8 +1541,44 @@
       <c r="K11" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
+      <c r="P11" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>7</v>
+      </c>
+      <c r="R11" s="7">
+        <v>10</v>
+      </c>
+      <c r="S11" s="7">
+        <v>11</v>
+      </c>
+      <c r="T11" s="7">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D12" s="9" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1603,44 @@
       <c r="K12" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="O12" s="7">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>6</v>
+      </c>
+      <c r="R12" s="7">
+        <v>11</v>
+      </c>
+      <c r="S12" s="7">
+        <v>13</v>
+      </c>
+      <c r="T12" s="7">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D13" s="9" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1665,44 @@
       <c r="K13" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>15</v>
+      </c>
+      <c r="R13" s="7">
+        <v>11</v>
+      </c>
+      <c r="S13" s="7">
+        <v>9</v>
+      </c>
+      <c r="T13" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
@@ -1086,8 +1727,44 @@
       <c r="K14" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>7</v>
+      </c>
+      <c r="R14" s="7">
+        <v>17</v>
+      </c>
+      <c r="S14" s="7">
+        <v>16</v>
+      </c>
+      <c r="T14" s="7">
+        <v>17</v>
+      </c>
+      <c r="AA14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1781,7 @@
         <v>8</v>
       </c>
       <c r="I15" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>2</v>
@@ -1112,8 +1789,44 @@
       <c r="K15" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>12</v>
+      </c>
+      <c r="R15" s="7">
+        <v>20</v>
+      </c>
+      <c r="S15" s="7">
+        <v>20</v>
+      </c>
+      <c r="T15" s="7">
+        <v>16</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
@@ -1138,8 +1851,44 @@
       <c r="K16" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>9</v>
+      </c>
+      <c r="R16" s="7">
+        <v>21</v>
+      </c>
+      <c r="S16" s="7">
+        <v>21</v>
+      </c>
+      <c r="T16" s="7">
+        <v>22</v>
+      </c>
+      <c r="AA16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D17" s="9" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1913,44 @@
       <c r="K17" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>20</v>
+      </c>
+      <c r="R17" s="7">
+        <v>19</v>
+      </c>
+      <c r="S17" s="7">
+        <v>19</v>
+      </c>
+      <c r="T17" s="7">
+        <v>14</v>
+      </c>
+      <c r="AA17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
@@ -1190,8 +1975,44 @@
       <c r="K18" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="O18" s="7">
+        <v>1</v>
+      </c>
+      <c r="P18" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>3</v>
+      </c>
+      <c r="R18" s="7">
+        <v>8</v>
+      </c>
+      <c r="S18" s="7">
+        <v>18</v>
+      </c>
+      <c r="T18" s="7">
+        <v>19</v>
+      </c>
+      <c r="AA18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D19" s="9" t="s">
         <v>15</v>
       </c>
@@ -1216,8 +2037,44 @@
       <c r="K19" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="O19" s="7">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>18</v>
+      </c>
+      <c r="R19" s="7">
+        <v>24</v>
+      </c>
+      <c r="S19" s="7">
+        <v>17</v>
+      </c>
+      <c r="T19" s="7">
+        <v>16</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D20" s="9" t="s">
         <v>16</v>
       </c>
@@ -1242,8 +2099,44 @@
       <c r="K20" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="O20" s="7">
+        <v>1</v>
+      </c>
+      <c r="P20" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>20</v>
+      </c>
+      <c r="R20" s="7">
+        <v>24</v>
+      </c>
+      <c r="S20" s="7">
+        <v>27</v>
+      </c>
+      <c r="T20" s="7">
+        <v>18</v>
+      </c>
+      <c r="AA20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D21" s="12" t="s">
         <v>18</v>
       </c>
@@ -1268,11 +2161,48 @@
       <c r="K21" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="O21" s="11">
+        <v>1</v>
+      </c>
+      <c r="P21" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>24</v>
+      </c>
+      <c r="R21" s="11">
+        <v>20</v>
+      </c>
+      <c r="S21" s="11">
+        <v>21</v>
+      </c>
+      <c r="T21" s="11">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="O5:S5"/>
+    <mergeCell ref="AA5:AE5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1283,7 +2213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB2F16E-ABB8-42B9-8872-AED4E45F0FF4}">
   <dimension ref="K5:U51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
@@ -1607,4 +2537,502 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57B1D08-4932-4E44-BD71-876668580D66}">
+  <dimension ref="M10:M48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:M48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="85.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74602506-DFB9-4A49-99FC-F98F7F1490DD}">
+  <dimension ref="M5:M67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="154.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardware\63_Glowing_Polyhedrons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA349686-3E29-41C7-B92F-0B803CE802D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC6F22E-20CE-4923-9DFA-9E6EA93FEE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{5BF2D058-20B1-4E68-B932-3EECD9DE5D4B}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{5BF2D058-20B1-4E68-B932-3EECD9DE5D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -2213,7 +2213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB2F16E-ABB8-42B9-8872-AED4E45F0FF4}">
   <dimension ref="K5:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
@@ -2732,7 +2732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74602506-DFB9-4A49-99FC-F98F7F1490DD}">
   <dimension ref="M5:M67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardware\63_Glowing_Polyhedrons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC6F22E-20CE-4923-9DFA-9E6EA93FEE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A551A7-247C-43E7-86C9-BC43B43928A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{5BF2D058-20B1-4E68-B932-3EECD9DE5D4B}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{5BF2D058-20B1-4E68-B932-3EECD9DE5D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Cube two taps" sheetId="2" r:id="rId2"/>
-    <sheet name="Octahedron" sheetId="4" r:id="rId3"/>
-    <sheet name="Cuboctahedron" sheetId="3" r:id="rId4"/>
+    <sheet name="Eulerian Objects" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
+    <sheet name="heart" sheetId="6" r:id="rId4"/>
+    <sheet name="Cube two taps" sheetId="2" r:id="rId5"/>
+    <sheet name="Octahedron" sheetId="4" r:id="rId6"/>
+    <sheet name="Cuboctahedron" sheetId="3" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Eulerian Objects'!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="434">
   <si>
     <t>Cube</t>
   </si>
@@ -514,6 +520,822 @@
   </si>
   <si>
     <t>Path 8: 9 -&gt; 8 -&gt; 1 -&gt; 2 | 2=C 3=A 4=A 5=A 7=C 9=A</t>
+  </si>
+  <si>
+    <t>model,n_vertices,n_edges,n_faces,eulerian_undirected,face_only_ok,face_only_n_cycles,general_ok,general_n_cycles,general_candidate_cycles,note</t>
+  </si>
+  <si>
+    <t>augmented-dodecahedron.json,21,35,16,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>augmented-hexagonal-prism.json,13,22,11,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>augmented-pentagonal-prism.json,11,19,10,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>augmented-sphenocorona.json,11,26,17,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>augmented-triangular-prism.json,7,13,8,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>augmented-tridiminished-icosahedron.json,10,18,10,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>augmented-truncated-cube.json,28,48,22,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>augmented-truncated-dodecahedron.json,65,105,42,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>augmented-truncated-tetrahedron.json,15,27,14,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>biaugmented-pentagonal-prism.json,12,23,13,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>biaugmented-triangular-prism.json,8,17,11,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>biaugmented-truncated-cube.json,32,60,30,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>bigyrate-diminished-rhombicosidodecahedron.json,55,105,52,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>bilunabirotunda.json,14,26,14,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>cube.json,8,12,6,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>cuboctahedron.json,12,24,14,True,True,8,True,4,18,Found planar edge-partition using 4 cycle(s).</t>
+  </si>
+  <si>
+    <t>decagonal-antiprism.json,20,40,22,True,True,11,True,11,22,Found planar edge-partition using 11 cycle(s).</t>
+  </si>
+  <si>
+    <t>decagonal-prism.json,20,30,12,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>diminished-rhombicosidodecahedron.json,55,105,52,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>disphenocingulum.json,16,38,24,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>dodecahedron.json,20,30,12,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-bipyramid.json,12,25,15,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-cupola.json,25,45,22,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-gyrobicupola.json,30,60,32,True,True,16,True,16,32,Found planar edge-partition using 16 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-pyramid.json,11,20,11,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-rotunda.json,30,55,27,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>elongated-square-cupola.json,20,36,18,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>elongated-square-pyramid.json,9,16,9,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>elongated-triangular-bipyramid.json,8,15,9,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>elongated-triangular-cupola.json,15,27,14,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>elongated-triangular-pyramid.json,7,12,7,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>gyrate-bidiminished-rhombicosidodecahedron.json,50,90,42,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>gyrobifastigium.json,8,14,8,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>gyroelongated-pentagonal-bicupola.json,30,70,42,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>gyroelongated-pentagonal-birotunda.json,40,90,52,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>gyroelongated-pentagonal-cupola.json,25,55,32,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>gyroelongated-pentagonal-cupolarotunda.json,35,80,47,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>gyroelongated-pentagonal-pyramid.json,11,25,16,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>gyroelongated-pentagonal-rotunda.json,30,65,37,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>gyroelongated-square-bicupola.json,24,56,34,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>gyroelongated-square-bipyramid.json,10,24,16,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>gyroelongated-square-cupola.json,20,44,26,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>gyroelongated-square-pyramid.json,9,20,13,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>gyroelongated-triangular-bicupola.json,18,42,26,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>gyroelongated-triangular-cupola.json,15,33,20,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>hebesphenomegacorona.json,14,33,21,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>hexagonal-antiprism.json,12,24,14,True,True,7,True,7,14,Found planar edge-partition using 7 cycle(s).</t>
+  </si>
+  <si>
+    <t>hexagonal-prism.json,12,18,8,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>icosahedron.json,12,30,20,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>icosidodecahedron.json,30,60,32,True,True,20,True,6,38,Found planar edge-partition using 6 cycle(s).</t>
+  </si>
+  <si>
+    <t>metabiaugmented-dodecahedron.json,22,40,20,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>metabiaugmented-hexagonal-prism.json,14,26,14,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>metabiaugmented-truncated-dodecahedron.json,70,120,52,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>metabidiminished-icosahedron.json,10,20,12,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>metabidiminished-rhombicosidodecahedron.json,50,90,42,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>metagyrate-diminished-rhombicosidodecahedron.json,55,105,52,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>octagonal-antiprism.json,16,32,18,True,True,9,True,9,18,Found planar edge-partition using 9 cycle(s).</t>
+  </si>
+  <si>
+    <t>octagonal-prism.json,16,24,10,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>octahedron.json,6,12,8,True,True,4,True,3,11,Found planar edge-partition using 3 cycle(s).</t>
+  </si>
+  <si>
+    <t>parabiaugmented-dodecahedron.json,22,40,20,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>parabiaugmented-hexagonal-prism.json,14,26,14,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>parabiaugmented-truncated-dodecahedron.json,70,120,52,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>parabidiminished-rhombicosidodecahedron.json,50,90,42,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>paragyrate-diminished-rhombicosidodecahedron.json,55,105,52,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>pentagonal-antiprism.json,10,20,12,True,True,6,True,6,12,Found planar edge-partition using 6 cycle(s).</t>
+  </si>
+  <si>
+    <t>pentagonal-bipyramid.json,7,15,10,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>pentagonal-cupola.json,15,25,12,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>pentagonal-gyrobicupola.json,20,40,22,True,True,12,True,10,22,Found planar edge-partition using 10 cycle(s).</t>
+  </si>
+  <si>
+    <t>pentagonal-gyrocupolarotunda.json,25,50,27,True,True,12,True,15,27,Found planar edge-partition using 15 cycle(s).</t>
+  </si>
+  <si>
+    <t>pentagonal-orthobicupola.json,20,40,22,True,True,11,True,11,22,Found planar edge-partition using 11 cycle(s).</t>
+  </si>
+  <si>
+    <t>pentagonal-orthobirotunda.json,30,60,32,True,True,16,True,16,33,Found planar edge-partition using 16 cycle(s).</t>
+  </si>
+  <si>
+    <t>pentagonal-orthocupolarotunda.json,25,50,27,True,True,16,True,11,27,Found planar edge-partition using 11 cycle(s).</t>
+  </si>
+  <si>
+    <t>pentagonal-prism.json,10,15,7,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>pentagonal-pyramid.json,6,10,6,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>pentagonal-rotunda.json,20,35,17,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>snub-cube.json,24,60,38,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>snub-disphenoid.json,8,18,12,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>snub-dodecahedron.json,60,150,92,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>snub-square-antiprism.json,16,40,26,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>sphenocorona.json,10,22,14,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>sphenomegacorona.json,12,28,18,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>square-antiprism.json,8,16,10,True,True,5,True,5,10,Found planar edge-partition using 5 cycle(s).</t>
+  </si>
+  <si>
+    <t>square-cupola.json,12,20,10,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>square-gyrobicupola.json,16,32,18,True,True,10,True,8,19,Found planar edge-partition using 8 cycle(s).</t>
+  </si>
+  <si>
+    <t>square-pyramid.json,5,8,5,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>tetrahedron.json,4,6,4,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>triangular-bipyramid.json,5,9,6,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>triangular-cupola.json,9,15,8,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>triangular-hebesphenorotunda.json,18,36,20,True,True,11,True,11,20,Found planar edge-partition using 11 cycle(s).</t>
+  </si>
+  <si>
+    <t>triangular-orthobicupola.json,12,24,14,True,True,7,True,7,15,Found planar edge-partition using 7 cycle(s).</t>
+  </si>
+  <si>
+    <t>triangular-prism.json,6,9,5,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>triaugmented-dodecahedron.json,23,45,24,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>triaugmented-triangular-prism.json,9,21,14,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>triaugmented-truncated-dodecahedron.json,75,135,62,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>tridiminished-icosahedron.json,9,15,8,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>tridiminished-rhombicosidodecahedron.json,45,75,32,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>truncated-cube.json,24,36,14,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>truncated-cuboctahedron.json,48,72,26,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>truncated-dodecahedron.json,60,90,32,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>truncated-icosahedron.json,60,90,32,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>truncated-icosidodecahedron.json,120,180,62,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>truncated-octahedron.json,24,36,14,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>truncated-tetrahedron.json,12,18,8,False,False,0,False,0,0,"Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible."</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>n_vertices</t>
+  </si>
+  <si>
+    <t>n_edges</t>
+  </si>
+  <si>
+    <t>n_faces</t>
+  </si>
+  <si>
+    <t>eulerian_undirected</t>
+  </si>
+  <si>
+    <t>face_only_ok</t>
+  </si>
+  <si>
+    <t>face_only_n_cycles</t>
+  </si>
+  <si>
+    <t>general_ok</t>
+  </si>
+  <si>
+    <t>general_n_cycles</t>
+  </si>
+  <si>
+    <t>general_candidate_cycles</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>augmented-dodecahedron.json</t>
+  </si>
+  <si>
+    <t>Not Eulerian (some vertex degrees are odd), so an undirected edge-disjoint cycle decomposition is impossible.</t>
+  </si>
+  <si>
+    <t>augmented-hexagonal-prism.json</t>
+  </si>
+  <si>
+    <t>augmented-pentagonal-prism.json</t>
+  </si>
+  <si>
+    <t>augmented-sphenocorona.json</t>
+  </si>
+  <si>
+    <t>augmented-triangular-prism.json</t>
+  </si>
+  <si>
+    <t>augmented-tridiminished-icosahedron.json</t>
+  </si>
+  <si>
+    <t>augmented-truncated-cube.json</t>
+  </si>
+  <si>
+    <t>augmented-truncated-dodecahedron.json</t>
+  </si>
+  <si>
+    <t>augmented-truncated-tetrahedron.json</t>
+  </si>
+  <si>
+    <t>biaugmented-pentagonal-prism.json</t>
+  </si>
+  <si>
+    <t>biaugmented-triangular-prism.json</t>
+  </si>
+  <si>
+    <t>biaugmented-truncated-cube.json</t>
+  </si>
+  <si>
+    <t>bigyrate-diminished-rhombicosidodecahedron.json</t>
+  </si>
+  <si>
+    <t>bilunabirotunda.json</t>
+  </si>
+  <si>
+    <t>cube.json</t>
+  </si>
+  <si>
+    <t>cuboctahedron.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 4 cycle(s).</t>
+  </si>
+  <si>
+    <t>decagonal-antiprism.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 11 cycle(s).</t>
+  </si>
+  <si>
+    <t>decagonal-prism.json</t>
+  </si>
+  <si>
+    <t>diminished-rhombicosidodecahedron.json</t>
+  </si>
+  <si>
+    <t>disphenocingulum.json</t>
+  </si>
+  <si>
+    <t>dodecahedron.json</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-bipyramid.json</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-cupola.json</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-gyrobicupola.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 16 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-gyrobirotunda.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 21 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-gyrocupolarotunda.json</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-orthobicupola.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 15 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-orthobirotunda.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 17 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-orthocupolarotunda.json</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-pyramid.json</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-rotunda.json</t>
+  </si>
+  <si>
+    <t>elongated-square-bipyramid.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 6 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-square-cupola.json</t>
+  </si>
+  <si>
+    <t>elongated-square-gyrobicupola.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 13 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-square-pyramid.json</t>
+  </si>
+  <si>
+    <t>elongated-triangular-bipyramid.json</t>
+  </si>
+  <si>
+    <t>elongated-triangular-cupola.json</t>
+  </si>
+  <si>
+    <t>elongated-triangular-gyrobicupola.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 10 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-triangular-orthobicupola.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 9 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-triangular-pyramid.json</t>
+  </si>
+  <si>
+    <t>gyrate-bidiminished-rhombicosidodecahedron.json</t>
+  </si>
+  <si>
+    <t>gyrate-rhombicosidodecahedron.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 31 cycle(s).</t>
+  </si>
+  <si>
+    <t>gyrobifastigium.json</t>
+  </si>
+  <si>
+    <t>gyroelongated-pentagonal-bicupola.json</t>
+  </si>
+  <si>
+    <t>gyroelongated-pentagonal-birotunda.json</t>
+  </si>
+  <si>
+    <t>gyroelongated-pentagonal-cupola.json</t>
+  </si>
+  <si>
+    <t>gyroelongated-pentagonal-cupolarotunda.json</t>
+  </si>
+  <si>
+    <t>gyroelongated-pentagonal-pyramid.json</t>
+  </si>
+  <si>
+    <t>gyroelongated-pentagonal-rotunda.json</t>
+  </si>
+  <si>
+    <t>gyroelongated-square-bicupola.json</t>
+  </si>
+  <si>
+    <t>gyroelongated-square-bipyramid.json</t>
+  </si>
+  <si>
+    <t>gyroelongated-square-cupola.json</t>
+  </si>
+  <si>
+    <t>gyroelongated-square-pyramid.json</t>
+  </si>
+  <si>
+    <t>gyroelongated-triangular-bicupola.json</t>
+  </si>
+  <si>
+    <t>gyroelongated-triangular-cupola.json</t>
+  </si>
+  <si>
+    <t>hebesphenomegacorona.json</t>
+  </si>
+  <si>
+    <t>hexagonal-antiprism.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 7 cycle(s).</t>
+  </si>
+  <si>
+    <t>hexagonal-prism.json</t>
+  </si>
+  <si>
+    <t>icosahedron.json</t>
+  </si>
+  <si>
+    <t>icosidodecahedron.json</t>
+  </si>
+  <si>
+    <t>metabiaugmented-dodecahedron.json</t>
+  </si>
+  <si>
+    <t>metabiaugmented-hexagonal-prism.json</t>
+  </si>
+  <si>
+    <t>metabiaugmented-truncated-dodecahedron.json</t>
+  </si>
+  <si>
+    <t>metabidiminished-icosahedron.json</t>
+  </si>
+  <si>
+    <t>metabidiminished-rhombicosidodecahedron.json</t>
+  </si>
+  <si>
+    <t>metabigyrate-rhombicosidodecahedron.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 30 cycle(s).</t>
+  </si>
+  <si>
+    <t>metagyrate-diminished-rhombicosidodecahedron.json</t>
+  </si>
+  <si>
+    <t>octagonal-antiprism.json</t>
+  </si>
+  <si>
+    <t>octagonal-prism.json</t>
+  </si>
+  <si>
+    <t>octahedron.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 3 cycle(s).</t>
+  </si>
+  <si>
+    <t>parabiaugmented-dodecahedron.json</t>
+  </si>
+  <si>
+    <t>parabiaugmented-hexagonal-prism.json</t>
+  </si>
+  <si>
+    <t>parabiaugmented-truncated-dodecahedron.json</t>
+  </si>
+  <si>
+    <t>parabidiminished-rhombicosidodecahedron.json</t>
+  </si>
+  <si>
+    <t>parabigyrate-rhombicosidodecahedron.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 32 cycle(s).</t>
+  </si>
+  <si>
+    <t>paragyrate-diminished-rhombicosidodecahedron.json</t>
+  </si>
+  <si>
+    <t>pentagonal-antiprism.json</t>
+  </si>
+  <si>
+    <t>pentagonal-bipyramid.json</t>
+  </si>
+  <si>
+    <t>pentagonal-cupola.json</t>
+  </si>
+  <si>
+    <t>pentagonal-gyrobicupola.json</t>
+  </si>
+  <si>
+    <t>pentagonal-gyrocupolarotunda.json</t>
+  </si>
+  <si>
+    <t>pentagonal-orthobicupola.json</t>
+  </si>
+  <si>
+    <t>pentagonal-orthobirotunda.json</t>
+  </si>
+  <si>
+    <t>pentagonal-orthocupolarotunda.json</t>
+  </si>
+  <si>
+    <t>pentagonal-prism.json</t>
+  </si>
+  <si>
+    <t>pentagonal-pyramid.json</t>
+  </si>
+  <si>
+    <t>pentagonal-rotunda.json</t>
+  </si>
+  <si>
+    <t>rhombicosidodecahedron.json</t>
+  </si>
+  <si>
+    <t>rhombicuboctahedron.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 12 cycle(s).</t>
+  </si>
+  <si>
+    <t>snub-cube.json</t>
+  </si>
+  <si>
+    <t>snub-disphenoid.json</t>
+  </si>
+  <si>
+    <t>snub-dodecahedron.json</t>
+  </si>
+  <si>
+    <t>snub-square-antiprism.json</t>
+  </si>
+  <si>
+    <t>sphenocorona.json</t>
+  </si>
+  <si>
+    <t>sphenomegacorona.json</t>
+  </si>
+  <si>
+    <t>square-antiprism.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 5 cycle(s).</t>
+  </si>
+  <si>
+    <t>square-cupola.json</t>
+  </si>
+  <si>
+    <t>square-gyrobicupola.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 8 cycle(s).</t>
+  </si>
+  <si>
+    <t>square-orthobicupola.json</t>
+  </si>
+  <si>
+    <t>square-pyramid.json</t>
+  </si>
+  <si>
+    <t>tetrahedron.json</t>
+  </si>
+  <si>
+    <t>triangular-bipyramid.json</t>
+  </si>
+  <si>
+    <t>triangular-cupola.json</t>
+  </si>
+  <si>
+    <t>triangular-hebesphenorotunda.json</t>
+  </si>
+  <si>
+    <t>triangular-orthobicupola.json</t>
+  </si>
+  <si>
+    <t>triangular-prism.json</t>
+  </si>
+  <si>
+    <t>triaugmented-dodecahedron.json</t>
+  </si>
+  <si>
+    <t>triaugmented-hexagonal-prism.json</t>
+  </si>
+  <si>
+    <t>triaugmented-triangular-prism.json</t>
+  </si>
+  <si>
+    <t>triaugmented-truncated-dodecahedron.json</t>
+  </si>
+  <si>
+    <t>tridiminished-icosahedron.json</t>
+  </si>
+  <si>
+    <t>tridiminished-rhombicosidodecahedron.json</t>
+  </si>
+  <si>
+    <t>trigyrate-rhombicosidodecahedron.json</t>
+  </si>
+  <si>
+    <t>Found planar edge-partition using 29 cycle(s).</t>
+  </si>
+  <si>
+    <t>truncated-cube.json</t>
+  </si>
+  <si>
+    <t>truncated-cuboctahedron.json</t>
+  </si>
+  <si>
+    <t>truncated-dodecahedron.json</t>
+  </si>
+  <si>
+    <t>truncated-icosahedron.json</t>
+  </si>
+  <si>
+    <t>truncated-icosidodecahedron.json</t>
+  </si>
+  <si>
+    <t>truncated-octahedron.json</t>
+  </si>
+  <si>
+    <t>truncated-tetrahedron.json</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-gyrobirotunda.json,40,80,42,True,True,21,True,21,44,Found planar edge-partition using 21 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-gyrocupolarotunda.json,35,70,37,True,True,21,True,21,38,Found planar edge-partition using 21 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-orthobicupola.json,30,60,32,True,True,17,True,17,34,Found planar edge-partition using 17 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-orthobirotunda.json,40,80,42,True,True,25,True,17,44,Found planar edge-partition using 17 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-pentagonal-orthocupolarotunda.json,35,70,37,True,True,17,True,17,38,Found planar edge-partition using 17 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-square-bipyramid.json,10,20,12,True,True,6,True,6,16,Found planar edge-partition using 6 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-square-gyrobicupola.json,24,48,26,True,True,13,True,13,28,Found planar edge-partition using 13 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-triangular-gyrobicupola.json,18,36,20,True,True,10,True,10,22,Found planar edge-partition using 10 cycle(s).</t>
+  </si>
+  <si>
+    <t>elongated-triangular-orthobicupola.json,18,36,20,True,True,11,True,9,22,Found planar edge-partition using 9 cycle(s).</t>
+  </si>
+  <si>
+    <t>gyrate-rhombicosidodecahedron.json,60,120,62,True,True,31,True,31,67,Found planar edge-partition using 31 cycle(s).</t>
+  </si>
+  <si>
+    <t>metabigyrate-rhombicosidodecahedron.json,60,120,62,True,True,30,True,32,65,Found planar edge-partition using 32 cycle(s).</t>
+  </si>
+  <si>
+    <t>parabigyrate-rhombicosidodecahedron.json,60,120,62,True,True,30,True,32,63,Found planar edge-partition using 32 cycle(s).</t>
+  </si>
+  <si>
+    <t>rhombicosidodecahedron.json,60,120,62,True,True,32,True,12,74,Found planar edge-partition using 12 cycle(s).</t>
+  </si>
+  <si>
+    <t>rhombicuboctahedron.json,24,48,26,True,True,14,True,6,32,Found planar edge-partition using 6 cycle(s).</t>
+  </si>
+  <si>
+    <t>square-orthobicupola.json,16,32,18,True,True,9,True,5,23,Found planar edge-partition using 5 cycle(s).</t>
+  </si>
+  <si>
+    <t>triaugmented-hexagonal-prism.json,15,30,17,True,True,9,True,9,20,Found planar edge-partition using 9 cycle(s).</t>
+  </si>
+  <si>
+    <t>trigyrate-rhombicosidodecahedron.json,60,120,62,True,True,29,True,29,65,Found planar edge-partition using 29 cycle(s).</t>
   </si>
 </sst>
 </file>
@@ -675,6 +1497,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>429025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>169977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3334771-F2C8-477E-8A16-9F19F48D9747}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="548640"/>
+          <a:ext cx="2867425" cy="3096057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>281941</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -764,7 +1635,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -813,7 +1684,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1161,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2730FE3-BE20-49D8-AF28-F682CEA2B90A}">
   <dimension ref="D5:AF21"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I15" sqref="H15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2210,6 +3081,4903 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAFC241-1F42-46DE-8A6D-E2B57F73A42E}">
+  <dimension ref="A1:K121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>416</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>341</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>353</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>404</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>279</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>13</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>339</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>345</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>7</v>
+      </c>
+      <c r="J37">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>359</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>400</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>7</v>
+      </c>
+      <c r="J39">
+        <v>15</v>
+      </c>
+      <c r="K39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>336</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>25</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>371</v>
+      </c>
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>281</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>26</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>291</v>
+      </c>
+      <c r="B44">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>351</v>
+      </c>
+      <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>26</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>363</v>
+      </c>
+      <c r="B46">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>26</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>286</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>27</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>14</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>388</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>28</v>
+      </c>
+      <c r="D49">
+        <v>18</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>297</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>300</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>348</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>30</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>403</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+      <c r="D53">
+        <v>17</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>9</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>9</v>
+      </c>
+      <c r="J53">
+        <v>17</v>
+      </c>
+      <c r="K53" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>358</v>
+      </c>
+      <c r="B54">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>32</v>
+      </c>
+      <c r="D54">
+        <v>18</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>9</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="J54">
+        <v>18</v>
+      </c>
+      <c r="K54" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>392</v>
+      </c>
+      <c r="B55">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>32</v>
+      </c>
+      <c r="D55">
+        <v>18</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>8</v>
+      </c>
+      <c r="J55">
+        <v>19</v>
+      </c>
+      <c r="K55" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>394</v>
+      </c>
+      <c r="B56">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>32</v>
+      </c>
+      <c r="D56">
+        <v>18</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>9</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>9</v>
+      </c>
+      <c r="J56">
+        <v>19</v>
+      </c>
+      <c r="K56" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>343</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>33</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>344</v>
+      </c>
+      <c r="B58">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>33</v>
+      </c>
+      <c r="D58">
+        <v>21</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>277</v>
+      </c>
+      <c r="B59">
+        <v>21</v>
+      </c>
+      <c r="C59">
+        <v>35</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>379</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>35</v>
+      </c>
+      <c r="D60">
+        <v>17</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>317</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>36</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>323</v>
+      </c>
+      <c r="B62">
+        <v>18</v>
+      </c>
+      <c r="C62">
+        <v>36</v>
+      </c>
+      <c r="D62">
+        <v>20</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>10</v>
+      </c>
+      <c r="J62">
+        <v>20</v>
+      </c>
+      <c r="K62" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>325</v>
+      </c>
+      <c r="B63">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>36</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>11</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>9</v>
+      </c>
+      <c r="J63">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>399</v>
+      </c>
+      <c r="B64">
+        <v>18</v>
+      </c>
+      <c r="C64">
+        <v>36</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>11</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>11</v>
+      </c>
+      <c r="J64">
+        <v>20</v>
+      </c>
+      <c r="K64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>410</v>
+      </c>
+      <c r="B65">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>36</v>
+      </c>
+      <c r="D65">
+        <v>14</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>415</v>
+      </c>
+      <c r="B66">
+        <v>24</v>
+      </c>
+      <c r="C66">
+        <v>36</v>
+      </c>
+      <c r="D66">
+        <v>14</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>299</v>
+      </c>
+      <c r="B67">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>38</v>
+      </c>
+      <c r="D67">
+        <v>24</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>295</v>
+      </c>
+      <c r="B68">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>40</v>
+      </c>
+      <c r="D68">
+        <v>22</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>11</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>11</v>
+      </c>
+      <c r="J68">
+        <v>22</v>
+      </c>
+      <c r="K68" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>350</v>
+      </c>
+      <c r="B69">
+        <v>22</v>
+      </c>
+      <c r="C69">
+        <v>40</v>
+      </c>
+      <c r="D69">
+        <v>20</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>362</v>
+      </c>
+      <c r="B70">
+        <v>22</v>
+      </c>
+      <c r="C70">
+        <v>40</v>
+      </c>
+      <c r="D70">
+        <v>20</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>372</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>40</v>
+      </c>
+      <c r="D71">
+        <v>22</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>12</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>10</v>
+      </c>
+      <c r="J71">
+        <v>22</v>
+      </c>
+      <c r="K71" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>374</v>
+      </c>
+      <c r="B72">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>40</v>
+      </c>
+      <c r="D72">
+        <v>22</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>11</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>11</v>
+      </c>
+      <c r="J72">
+        <v>22</v>
+      </c>
+      <c r="K72" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>386</v>
+      </c>
+      <c r="B73">
+        <v>16</v>
+      </c>
+      <c r="C73">
+        <v>40</v>
+      </c>
+      <c r="D73">
+        <v>26</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>342</v>
+      </c>
+      <c r="B74">
+        <v>18</v>
+      </c>
+      <c r="C74">
+        <v>42</v>
+      </c>
+      <c r="D74">
+        <v>26</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>340</v>
+      </c>
+      <c r="B75">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>44</v>
+      </c>
+      <c r="D75">
+        <v>26</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>302</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>45</v>
+      </c>
+      <c r="D76">
+        <v>22</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>402</v>
+      </c>
+      <c r="B77">
+        <v>23</v>
+      </c>
+      <c r="C77">
+        <v>45</v>
+      </c>
+      <c r="D77">
+        <v>24</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>284</v>
+      </c>
+      <c r="B78">
+        <v>28</v>
+      </c>
+      <c r="C78">
+        <v>48</v>
+      </c>
+      <c r="D78">
+        <v>22</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>318</v>
+      </c>
+      <c r="B79">
+        <v>24</v>
+      </c>
+      <c r="C79">
+        <v>48</v>
+      </c>
+      <c r="D79">
+        <v>26</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>13</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>13</v>
+      </c>
+      <c r="J79">
+        <v>26</v>
+      </c>
+      <c r="K79" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>381</v>
+      </c>
+      <c r="B80">
+        <v>24</v>
+      </c>
+      <c r="C80">
+        <v>48</v>
+      </c>
+      <c r="D80">
+        <v>26</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>14</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>12</v>
+      </c>
+      <c r="J80">
+        <v>26</v>
+      </c>
+      <c r="K80" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>373</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>50</v>
+      </c>
+      <c r="D81">
+        <v>27</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>12</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>15</v>
+      </c>
+      <c r="J81">
+        <v>27</v>
+      </c>
+      <c r="K81" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>376</v>
+      </c>
+      <c r="B82">
+        <v>25</v>
+      </c>
+      <c r="C82">
+        <v>50</v>
+      </c>
+      <c r="D82">
+        <v>27</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>16</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>11</v>
+      </c>
+      <c r="J82">
+        <v>27</v>
+      </c>
+      <c r="K82" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>314</v>
+      </c>
+      <c r="B83">
+        <v>30</v>
+      </c>
+      <c r="C83">
+        <v>55</v>
+      </c>
+      <c r="D83">
+        <v>27</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>334</v>
+      </c>
+      <c r="B84">
+        <v>25</v>
+      </c>
+      <c r="C84">
+        <v>55</v>
+      </c>
+      <c r="D84">
+        <v>32</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>338</v>
+      </c>
+      <c r="B85">
+        <v>24</v>
+      </c>
+      <c r="C85">
+        <v>56</v>
+      </c>
+      <c r="D85">
+        <v>34</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>289</v>
+      </c>
+      <c r="B86">
+        <v>32</v>
+      </c>
+      <c r="C86">
+        <v>60</v>
+      </c>
+      <c r="D86">
+        <v>30</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>303</v>
+      </c>
+      <c r="B87">
+        <v>30</v>
+      </c>
+      <c r="C87">
+        <v>60</v>
+      </c>
+      <c r="D87">
+        <v>32</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>16</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>16</v>
+      </c>
+      <c r="J87">
+        <v>32</v>
+      </c>
+      <c r="K87" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>308</v>
+      </c>
+      <c r="B88">
+        <v>30</v>
+      </c>
+      <c r="C88">
+        <v>60</v>
+      </c>
+      <c r="D88">
+        <v>32</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>17</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>15</v>
+      </c>
+      <c r="J88">
+        <v>32</v>
+      </c>
+      <c r="K88" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>349</v>
+      </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>60</v>
+      </c>
+      <c r="D89">
+        <v>32</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>20</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>6</v>
+      </c>
+      <c r="J89">
+        <v>38</v>
+      </c>
+      <c r="K89" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>375</v>
+      </c>
+      <c r="B90">
+        <v>30</v>
+      </c>
+      <c r="C90">
+        <v>60</v>
+      </c>
+      <c r="D90">
+        <v>32</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>16</v>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>16</v>
+      </c>
+      <c r="J90">
+        <v>33</v>
+      </c>
+      <c r="K90" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>383</v>
+      </c>
+      <c r="B91">
+        <v>24</v>
+      </c>
+      <c r="C91">
+        <v>60</v>
+      </c>
+      <c r="D91">
+        <v>38</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>337</v>
+      </c>
+      <c r="B92">
+        <v>30</v>
+      </c>
+      <c r="C92">
+        <v>65</v>
+      </c>
+      <c r="D92">
+        <v>37</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>307</v>
+      </c>
+      <c r="B93">
+        <v>35</v>
+      </c>
+      <c r="C93">
+        <v>70</v>
+      </c>
+      <c r="D93">
+        <v>37</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>21</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>16</v>
+      </c>
+      <c r="J93">
+        <v>37</v>
+      </c>
+      <c r="K93" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>312</v>
+      </c>
+      <c r="B94">
+        <v>35</v>
+      </c>
+      <c r="C94">
+        <v>70</v>
+      </c>
+      <c r="D94">
+        <v>37</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>17</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>17</v>
+      </c>
+      <c r="J94">
+        <v>37</v>
+      </c>
+      <c r="K94" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B95">
+        <v>30</v>
+      </c>
+      <c r="C95">
+        <v>70</v>
+      </c>
+      <c r="D95">
+        <v>42</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>411</v>
+      </c>
+      <c r="B96">
+        <v>48</v>
+      </c>
+      <c r="C96">
+        <v>72</v>
+      </c>
+      <c r="D96">
+        <v>26</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>407</v>
+      </c>
+      <c r="B97">
+        <v>45</v>
+      </c>
+      <c r="C97">
+        <v>75</v>
+      </c>
+      <c r="D97">
+        <v>32</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>305</v>
+      </c>
+      <c r="B98">
+        <v>40</v>
+      </c>
+      <c r="C98">
+        <v>80</v>
+      </c>
+      <c r="D98">
+        <v>42</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>21</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>21</v>
+      </c>
+      <c r="J98">
+        <v>42</v>
+      </c>
+      <c r="K98" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>310</v>
+      </c>
+      <c r="B99">
+        <v>40</v>
+      </c>
+      <c r="C99">
+        <v>80</v>
+      </c>
+      <c r="D99">
+        <v>42</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>25</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>17</v>
+      </c>
+      <c r="J99">
+        <v>42</v>
+      </c>
+      <c r="K99" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>335</v>
+      </c>
+      <c r="B100">
+        <v>35</v>
+      </c>
+      <c r="C100">
+        <v>80</v>
+      </c>
+      <c r="D100">
+        <v>47</v>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>328</v>
+      </c>
+      <c r="B101">
+        <v>50</v>
+      </c>
+      <c r="C101">
+        <v>90</v>
+      </c>
+      <c r="D101">
+        <v>42</v>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>333</v>
+      </c>
+      <c r="B102">
+        <v>40</v>
+      </c>
+      <c r="C102">
+        <v>90</v>
+      </c>
+      <c r="D102">
+        <v>52</v>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>354</v>
+      </c>
+      <c r="B103">
+        <v>50</v>
+      </c>
+      <c r="C103">
+        <v>90</v>
+      </c>
+      <c r="D103">
+        <v>42</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>365</v>
+      </c>
+      <c r="B104">
+        <v>50</v>
+      </c>
+      <c r="C104">
+        <v>90</v>
+      </c>
+      <c r="D104">
+        <v>42</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>412</v>
+      </c>
+      <c r="B105">
+        <v>60</v>
+      </c>
+      <c r="C105">
+        <v>90</v>
+      </c>
+      <c r="D105">
+        <v>32</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>413</v>
+      </c>
+      <c r="B106">
+        <v>60</v>
+      </c>
+      <c r="C106">
+        <v>90</v>
+      </c>
+      <c r="D106">
+        <v>32</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>285</v>
+      </c>
+      <c r="B107">
+        <v>65</v>
+      </c>
+      <c r="C107">
+        <v>105</v>
+      </c>
+      <c r="D107">
+        <v>42</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>290</v>
+      </c>
+      <c r="B108">
+        <v>55</v>
+      </c>
+      <c r="C108">
+        <v>105</v>
+      </c>
+      <c r="D108">
+        <v>52</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>298</v>
+      </c>
+      <c r="B109">
+        <v>55</v>
+      </c>
+      <c r="C109">
+        <v>105</v>
+      </c>
+      <c r="D109">
+        <v>52</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>357</v>
+      </c>
+      <c r="B110">
+        <v>55</v>
+      </c>
+      <c r="C110">
+        <v>105</v>
+      </c>
+      <c r="D110">
+        <v>52</v>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>368</v>
+      </c>
+      <c r="B111">
+        <v>55</v>
+      </c>
+      <c r="C111">
+        <v>105</v>
+      </c>
+      <c r="D111">
+        <v>52</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>329</v>
+      </c>
+      <c r="B112">
+        <v>60</v>
+      </c>
+      <c r="C112">
+        <v>120</v>
+      </c>
+      <c r="D112">
+        <v>62</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>31</v>
+      </c>
+      <c r="H112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>31</v>
+      </c>
+      <c r="J112">
+        <v>62</v>
+      </c>
+      <c r="K112" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>352</v>
+      </c>
+      <c r="B113">
+        <v>70</v>
+      </c>
+      <c r="C113">
+        <v>120</v>
+      </c>
+      <c r="D113">
+        <v>52</v>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>355</v>
+      </c>
+      <c r="B114">
+        <v>60</v>
+      </c>
+      <c r="C114">
+        <v>120</v>
+      </c>
+      <c r="D114">
+        <v>62</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" t="b">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>30</v>
+      </c>
+      <c r="H114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>30</v>
+      </c>
+      <c r="J114">
+        <v>62</v>
+      </c>
+      <c r="K114" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>364</v>
+      </c>
+      <c r="B115">
+        <v>70</v>
+      </c>
+      <c r="C115">
+        <v>120</v>
+      </c>
+      <c r="D115">
+        <v>52</v>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>366</v>
+      </c>
+      <c r="B116">
+        <v>60</v>
+      </c>
+      <c r="C116">
+        <v>120</v>
+      </c>
+      <c r="D116">
+        <v>62</v>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116" t="b">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>30</v>
+      </c>
+      <c r="H116" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>32</v>
+      </c>
+      <c r="J116">
+        <v>62</v>
+      </c>
+      <c r="K116" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>380</v>
+      </c>
+      <c r="B117">
+        <v>60</v>
+      </c>
+      <c r="C117">
+        <v>120</v>
+      </c>
+      <c r="D117">
+        <v>62</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>32</v>
+      </c>
+      <c r="H117" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>32</v>
+      </c>
+      <c r="J117">
+        <v>62</v>
+      </c>
+      <c r="K117" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>408</v>
+      </c>
+      <c r="B118">
+        <v>60</v>
+      </c>
+      <c r="C118">
+        <v>120</v>
+      </c>
+      <c r="D118">
+        <v>62</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>29</v>
+      </c>
+      <c r="H118" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>29</v>
+      </c>
+      <c r="J118">
+        <v>62</v>
+      </c>
+      <c r="K118" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>405</v>
+      </c>
+      <c r="B119">
+        <v>75</v>
+      </c>
+      <c r="C119">
+        <v>135</v>
+      </c>
+      <c r="D119">
+        <v>62</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>385</v>
+      </c>
+      <c r="B120">
+        <v>60</v>
+      </c>
+      <c r="C120">
+        <v>150</v>
+      </c>
+      <c r="D120">
+        <v>92</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>414</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <v>180</v>
+      </c>
+      <c r="D121">
+        <v>62</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{FBAFC241-1F42-46DE-8A6D-E2B57F73A42E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K121">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A567DAC6-894D-4A63-83C7-13C03DA8EAE1}">
+  <dimension ref="A1:A121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEABC9F7-42E1-4131-A20B-D55AA87974D3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB2F16E-ABB8-42B9-8872-AED4E45F0FF4}">
   <dimension ref="K5:U51"/>
   <sheetViews>
@@ -2539,7 +8307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57B1D08-4932-4E44-BD71-876668580D66}">
   <dimension ref="M10:M48"/>
   <sheetViews>
@@ -2728,12 +8496,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74602506-DFB9-4A49-99FC-F98F7F1490DD}">
   <dimension ref="M5:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardware\63_Glowing_Polyhedrons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56211ED9-DF97-4B4F-A6A9-CDCAAB7758C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4406BDD1-45DF-4C38-B66F-9F876BBB7EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{5BF2D058-20B1-4E68-B932-3EECD9DE5D4B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{5BF2D058-20B1-4E68-B932-3EECD9DE5D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Eulerian Objects" sheetId="7" r:id="rId2"/>
-    <sheet name="Cycle_decomp" sheetId="9" r:id="rId3"/>
-    <sheet name="cycle_decomp_unqique" sheetId="10" r:id="rId4"/>
-    <sheet name="heart" sheetId="6" r:id="rId5"/>
-    <sheet name="Cube two taps" sheetId="2" r:id="rId6"/>
-    <sheet name="Octahedron" sheetId="4" r:id="rId7"/>
-    <sheet name="Cuboctahedron" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId3"/>
+    <sheet name="Cycle_decomp" sheetId="9" r:id="rId4"/>
+    <sheet name="cycle_decomp_unqique" sheetId="10" r:id="rId5"/>
+    <sheet name="heart" sheetId="6" r:id="rId6"/>
+    <sheet name="Cube two taps" sheetId="2" r:id="rId7"/>
+    <sheet name="Octahedron" sheetId="4" r:id="rId8"/>
+    <sheet name="Cuboctahedron" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Cycle_decomp!$A$1:$H$124</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">cycle_decomp_unqique!$A$1:$H$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Cycle_decomp!$A$1:$H$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">cycle_decomp_unqique!$A$1:$H$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Eulerian Objects'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$J$123</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="540">
   <si>
     <t>Cube</t>
   </si>
@@ -1033,6 +1035,630 @@
   </si>
   <si>
     <t>2,4</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Degrees</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>DegreeCounts</t>
+  </si>
+  <si>
+    <t>Regularity</t>
+  </si>
+  <si>
+    <t>Bipartite</t>
+  </si>
+  <si>
+    <t>CycleDecomp</t>
+  </si>
+  <si>
+    <t>CycleDecomp2D</t>
+  </si>
+  <si>
+    <t>augmented dodecahedron</t>
+  </si>
+  <si>
+    <t>3, 4, 5</t>
+  </si>
+  <si>
+    <t>3:15, 4:5, 5:1</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>augmented hexagonal prism</t>
+  </si>
+  <si>
+    <t>3, 4</t>
+  </si>
+  <si>
+    <t>3:8, 4:5</t>
+  </si>
+  <si>
+    <t>augmented pentagonal prism</t>
+  </si>
+  <si>
+    <t>3:6, 4:5</t>
+  </si>
+  <si>
+    <t>augmented sphenocorona</t>
+  </si>
+  <si>
+    <t>4, 5</t>
+  </si>
+  <si>
+    <t>4:3, 5:8</t>
+  </si>
+  <si>
+    <t>augmented triangular prism</t>
+  </si>
+  <si>
+    <t>3:2, 4:5</t>
+  </si>
+  <si>
+    <t>augmented tridiminished icosahedron</t>
+  </si>
+  <si>
+    <t>3:4, 4:6</t>
+  </si>
+  <si>
+    <t>augmented truncated cube</t>
+  </si>
+  <si>
+    <t>3:16, 4:12</t>
+  </si>
+  <si>
+    <t>augmented truncated dodecahedron</t>
+  </si>
+  <si>
+    <t>3:50, 4:15</t>
+  </si>
+  <si>
+    <t>augmented truncated tetrahedron</t>
+  </si>
+  <si>
+    <t>3:6, 4:9</t>
+  </si>
+  <si>
+    <t>biaugmented pentagonal prism</t>
+  </si>
+  <si>
+    <t>3:2, 4:10</t>
+  </si>
+  <si>
+    <t>biaugmented triangular prism</t>
+  </si>
+  <si>
+    <t>4:6, 5:2</t>
+  </si>
+  <si>
+    <t>biaugmented truncated cube</t>
+  </si>
+  <si>
+    <t>3:8, 4:24</t>
+  </si>
+  <si>
+    <t>bigyrate diminished rhombicosidodecahedron</t>
+  </si>
+  <si>
+    <t>3:10, 4:45</t>
+  </si>
+  <si>
+    <t>bilunabirotunda</t>
+  </si>
+  <si>
+    <t>3:4, 4:10</t>
+  </si>
+  <si>
+    <t>cube</t>
+  </si>
+  <si>
+    <t>3-regular</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>cuboctahedron</t>
+  </si>
+  <si>
+    <t>4-regular</t>
+  </si>
+  <si>
+    <t>decagonal antiprism</t>
+  </si>
+  <si>
+    <t>decagonal prism</t>
+  </si>
+  <si>
+    <t>diminished rhombicosidodecahedron</t>
+  </si>
+  <si>
+    <t>disphenocingulum</t>
+  </si>
+  <si>
+    <t>4:4, 5:12</t>
+  </si>
+  <si>
+    <t>dodecahedron</t>
+  </si>
+  <si>
+    <t>elongated pentagonal bipyramid</t>
+  </si>
+  <si>
+    <t>4:10, 5:2</t>
+  </si>
+  <si>
+    <t>elongated pentagonal cupola</t>
+  </si>
+  <si>
+    <t>3:10, 4:15</t>
+  </si>
+  <si>
+    <t>elongated pentagonal gyrobicupola</t>
+  </si>
+  <si>
+    <t>elongated pentagonal gyrobirotunda</t>
+  </si>
+  <si>
+    <t>elongated pentagonal gyrocupolarotunda</t>
+  </si>
+  <si>
+    <t>elongated pentagonal orthobicupola</t>
+  </si>
+  <si>
+    <t>elongated pentagonal orthobirotunda</t>
+  </si>
+  <si>
+    <t>elongated pentagonal orthocupolarotunda</t>
+  </si>
+  <si>
+    <t>elongated pentagonal pyramid</t>
+  </si>
+  <si>
+    <t>3:5, 4:5, 5:1</t>
+  </si>
+  <si>
+    <t>elongated pentagonal rotunda</t>
+  </si>
+  <si>
+    <t>3:10, 4:20</t>
+  </si>
+  <si>
+    <t>elongated square bipyramid</t>
+  </si>
+  <si>
+    <t>elongated square cupola</t>
+  </si>
+  <si>
+    <t>3:8, 4:12</t>
+  </si>
+  <si>
+    <t>elongated square gyrobicupola</t>
+  </si>
+  <si>
+    <t>elongated square pyramid</t>
+  </si>
+  <si>
+    <t>3:4, 4:5</t>
+  </si>
+  <si>
+    <t>elongated triangular bipyramid</t>
+  </si>
+  <si>
+    <t>3:2, 4:6</t>
+  </si>
+  <si>
+    <t>elongated triangular cupola</t>
+  </si>
+  <si>
+    <t>elongated triangular gyrobicupola</t>
+  </si>
+  <si>
+    <t>elongated triangular orthobicupola</t>
+  </si>
+  <si>
+    <t>elongated triangular pyramid</t>
+  </si>
+  <si>
+    <t>3:4, 4:3</t>
+  </si>
+  <si>
+    <t>gyrate bidiminished rhombicosidodecahedron</t>
+  </si>
+  <si>
+    <t>3:20, 4:30</t>
+  </si>
+  <si>
+    <t>gyrate rhombicosidodecahedron</t>
+  </si>
+  <si>
+    <t>gyrobifastigium</t>
+  </si>
+  <si>
+    <t>3:4, 4:4</t>
+  </si>
+  <si>
+    <t>gyroelongated pentagonal bicupola</t>
+  </si>
+  <si>
+    <t>4:10, 5:20</t>
+  </si>
+  <si>
+    <t>gyroelongated pentagonal birotunda</t>
+  </si>
+  <si>
+    <t>4:20, 5:20</t>
+  </si>
+  <si>
+    <t>gyroelongated pentagonal cupola</t>
+  </si>
+  <si>
+    <t>4:15, 5:10</t>
+  </si>
+  <si>
+    <t>gyroelongated pentagonal cupolarotunda</t>
+  </si>
+  <si>
+    <t>4:15, 5:20</t>
+  </si>
+  <si>
+    <t>gyroelongated pentagonal pyramid</t>
+  </si>
+  <si>
+    <t>4:5, 5:6</t>
+  </si>
+  <si>
+    <t>gyroelongated pentagonal rotunda</t>
+  </si>
+  <si>
+    <t>4:20, 5:10</t>
+  </si>
+  <si>
+    <t>gyroelongated square bicupola</t>
+  </si>
+  <si>
+    <t>4:8, 5:16</t>
+  </si>
+  <si>
+    <t>gyroelongated square bipyramid</t>
+  </si>
+  <si>
+    <t>4:2, 5:8</t>
+  </si>
+  <si>
+    <t>gyroelongated square cupola</t>
+  </si>
+  <si>
+    <t>4:12, 5:8</t>
+  </si>
+  <si>
+    <t>gyroelongated square pyramid</t>
+  </si>
+  <si>
+    <t>4:5, 5:4</t>
+  </si>
+  <si>
+    <t>gyroelongated triangular bicupola</t>
+  </si>
+  <si>
+    <t>4:6, 5:12</t>
+  </si>
+  <si>
+    <t>gyroelongated triangular cupola</t>
+  </si>
+  <si>
+    <t>4:9, 5:6</t>
+  </si>
+  <si>
+    <t>hebesphenomegacorona</t>
+  </si>
+  <si>
+    <t>4:4, 5:10</t>
+  </si>
+  <si>
+    <t>hexagonal antiprism</t>
+  </si>
+  <si>
+    <t>hexagonal prism</t>
+  </si>
+  <si>
+    <t>icosahedron</t>
+  </si>
+  <si>
+    <t>5-regular</t>
+  </si>
+  <si>
+    <t>icosidodecahedron</t>
+  </si>
+  <si>
+    <t>metabiaugmented dodecahedron</t>
+  </si>
+  <si>
+    <t>3:10, 4:10, 5:2</t>
+  </si>
+  <si>
+    <t>metabiaugmented hexagonal prism</t>
+  </si>
+  <si>
+    <t>metabiaugmented truncated dodecahedron</t>
+  </si>
+  <si>
+    <t>3:40, 4:30</t>
+  </si>
+  <si>
+    <t>metabidiminished icosahedron</t>
+  </si>
+  <si>
+    <t>3:2, 4:6, 5:2</t>
+  </si>
+  <si>
+    <t>metabidiminished rhombicosidodecahedron</t>
+  </si>
+  <si>
+    <t>metabigyrate rhombicosidodecahedron</t>
+  </si>
+  <si>
+    <t>metagyrate diminished rhombicosidodecahedron</t>
+  </si>
+  <si>
+    <t>octagonal antiprism</t>
+  </si>
+  <si>
+    <t>octagonal prism</t>
+  </si>
+  <si>
+    <t>octahedron</t>
+  </si>
+  <si>
+    <t>parabiaugmented dodecahedron</t>
+  </si>
+  <si>
+    <t>parabiaugmented hexagonal prism</t>
+  </si>
+  <si>
+    <t>parabiaugmented truncated dodecahedron</t>
+  </si>
+  <si>
+    <t>parabidiminished rhombicosidodecahedron</t>
+  </si>
+  <si>
+    <t>parabigyrate rhombicosidodecahedron</t>
+  </si>
+  <si>
+    <t>paragyrate diminished rhombicosidodecahedron</t>
+  </si>
+  <si>
+    <t>pentagonal antiprism</t>
+  </si>
+  <si>
+    <t>pentagonal bipyramid</t>
+  </si>
+  <si>
+    <t>4:5, 5:2</t>
+  </si>
+  <si>
+    <t>pentagonal cupola</t>
+  </si>
+  <si>
+    <t>3:10, 4:5</t>
+  </si>
+  <si>
+    <t>pentagonal gyrobicupola</t>
+  </si>
+  <si>
+    <t>pentagonal gyrocupolarotunda</t>
+  </si>
+  <si>
+    <t>pentagonal orthobicupola</t>
+  </si>
+  <si>
+    <t>pentagonal orthobirotunda</t>
+  </si>
+  <si>
+    <t>pentagonal orthocupolarotunda</t>
+  </si>
+  <si>
+    <t>pentagonal prism</t>
+  </si>
+  <si>
+    <t>pentagonal pyramid</t>
+  </si>
+  <si>
+    <t>3, 5</t>
+  </si>
+  <si>
+    <t>3:5, 5:1</t>
+  </si>
+  <si>
+    <t>pentagonal rotunda</t>
+  </si>
+  <si>
+    <t>3:10, 4:10</t>
+  </si>
+  <si>
+    <t>rhombicosidodecahedron</t>
+  </si>
+  <si>
+    <t>rhombicuboctahedron</t>
+  </si>
+  <si>
+    <t>snub cube</t>
+  </si>
+  <si>
+    <t>snub disphenoid</t>
+  </si>
+  <si>
+    <t>4:4, 5:4</t>
+  </si>
+  <si>
+    <t>snub dodecahedron</t>
+  </si>
+  <si>
+    <t>snub square antiprism</t>
+  </si>
+  <si>
+    <t>sphenocorona</t>
+  </si>
+  <si>
+    <t>4:6, 5:4</t>
+  </si>
+  <si>
+    <t>sphenomegacorona</t>
+  </si>
+  <si>
+    <t>4:4, 5:8</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>2-regular</t>
+  </si>
+  <si>
+    <t>square antiprism</t>
+  </si>
+  <si>
+    <t>square cupola</t>
+  </si>
+  <si>
+    <t>3:8, 4:4</t>
+  </si>
+  <si>
+    <t>square gyrobicupola</t>
+  </si>
+  <si>
+    <t>square orthobicupola</t>
+  </si>
+  <si>
+    <t>square pyramid</t>
+  </si>
+  <si>
+    <t>3:4, 4:1</t>
+  </si>
+  <si>
+    <t>star_octahedron</t>
+  </si>
+  <si>
+    <t>2, 4</t>
+  </si>
+  <si>
+    <t>2:4, 4:6</t>
+  </si>
+  <si>
+    <t>tetrahedron</t>
+  </si>
+  <si>
+    <t>triangular bipyramid</t>
+  </si>
+  <si>
+    <t>3:2, 4:3</t>
+  </si>
+  <si>
+    <t>triangular cupola</t>
+  </si>
+  <si>
+    <t>3:6, 4:3</t>
+  </si>
+  <si>
+    <t>triangular hebesphenorotunda</t>
+  </si>
+  <si>
+    <t>triangular orthobicupola</t>
+  </si>
+  <si>
+    <t>triangular prism</t>
+  </si>
+  <si>
+    <t>triaugmented dodecahedron</t>
+  </si>
+  <si>
+    <t>3:5, 4:15, 5:3</t>
+  </si>
+  <si>
+    <t>triaugmented hexagonal prism</t>
+  </si>
+  <si>
+    <t>triaugmented triangular prism</t>
+  </si>
+  <si>
+    <t>4:3, 5:6</t>
+  </si>
+  <si>
+    <t>triaugmented truncated dodecahedron</t>
+  </si>
+  <si>
+    <t>3:30, 4:45</t>
+  </si>
+  <si>
+    <t>tridiminished icosahedron</t>
+  </si>
+  <si>
+    <t>tridiminished rhombicosidodecahedron</t>
+  </si>
+  <si>
+    <t>3:30, 4:15</t>
+  </si>
+  <si>
+    <t>trigyrate rhombicosidodecahedron</t>
+  </si>
+  <si>
+    <t>truncated cube</t>
+  </si>
+  <si>
+    <t>truncated cuboctahedron</t>
+  </si>
+  <si>
+    <t>truncated dodecahedron</t>
+  </si>
+  <si>
+    <t>truncated icosahedron</t>
+  </si>
+  <si>
+    <t>truncated icosidodecahedron</t>
+  </si>
+  <si>
+    <t>truncated octahedron</t>
+  </si>
+  <si>
+    <t>truncated tetrahedron</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Total objects</t>
+  </si>
+  <si>
+    <t>n-regular</t>
+  </si>
+  <si>
+    <t>5 (2-regular:1, 5-regular:4)</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Regular total</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1185,6 +1811,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1753,7 +2386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2730FE3-BE20-49D8-AF28-F682CEA2B90A}">
   <dimension ref="C1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -3154,8 +3787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAFC241-1F42-46DE-8A6D-E2B57F73A42E}">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:C44"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7413,6 +8046,4036 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4847D633-DD0F-4FBA-9BE8-9FCC37D3DF7C}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="H1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H3" t="s">
+        <v>347</v>
+      </c>
+      <c r="I3" t="s">
+        <v>347</v>
+      </c>
+      <c r="J3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H4" t="s">
+        <v>347</v>
+      </c>
+      <c r="I4" t="s">
+        <v>347</v>
+      </c>
+      <c r="J4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H5" t="s">
+        <v>347</v>
+      </c>
+      <c r="I5" t="s">
+        <v>347</v>
+      </c>
+      <c r="J5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H6" t="s">
+        <v>347</v>
+      </c>
+      <c r="I6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>48</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H8" t="s">
+        <v>347</v>
+      </c>
+      <c r="I8" t="s">
+        <v>347</v>
+      </c>
+      <c r="J8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>105</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H9" t="s">
+        <v>347</v>
+      </c>
+      <c r="I9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H10" t="s">
+        <v>347</v>
+      </c>
+      <c r="I10" t="s">
+        <v>347</v>
+      </c>
+      <c r="J10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H11" t="s">
+        <v>347</v>
+      </c>
+      <c r="I11" t="s">
+        <v>347</v>
+      </c>
+      <c r="J11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H12" t="s">
+        <v>347</v>
+      </c>
+      <c r="I12" t="s">
+        <v>347</v>
+      </c>
+      <c r="J12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H13" t="s">
+        <v>347</v>
+      </c>
+      <c r="I13" t="s">
+        <v>347</v>
+      </c>
+      <c r="J13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>105</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H14" t="s">
+        <v>347</v>
+      </c>
+      <c r="I14" t="s">
+        <v>347</v>
+      </c>
+      <c r="J14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H15" t="s">
+        <v>347</v>
+      </c>
+      <c r="I15" t="s">
+        <v>347</v>
+      </c>
+      <c r="J15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H16" t="s">
+        <v>378</v>
+      </c>
+      <c r="I16" t="s">
+        <v>347</v>
+      </c>
+      <c r="J16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="20">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="21">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="H17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I17" t="s">
+        <v>378</v>
+      </c>
+      <c r="J17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18" s="20">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H18" t="s">
+        <v>347</v>
+      </c>
+      <c r="I18" t="s">
+        <v>378</v>
+      </c>
+      <c r="J18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19" s="20">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H19" t="s">
+        <v>378</v>
+      </c>
+      <c r="I19" t="s">
+        <v>347</v>
+      </c>
+      <c r="J19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="B20">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>105</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H20" t="s">
+        <v>347</v>
+      </c>
+      <c r="I20" t="s">
+        <v>347</v>
+      </c>
+      <c r="J20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>38</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H21" t="s">
+        <v>347</v>
+      </c>
+      <c r="I21" t="s">
+        <v>347</v>
+      </c>
+      <c r="J21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22" s="20">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H22" t="s">
+        <v>347</v>
+      </c>
+      <c r="I22" t="s">
+        <v>347</v>
+      </c>
+      <c r="J22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H23" t="s">
+        <v>347</v>
+      </c>
+      <c r="I23" t="s">
+        <v>347</v>
+      </c>
+      <c r="J23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>45</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H24" t="s">
+        <v>347</v>
+      </c>
+      <c r="I24" t="s">
+        <v>347</v>
+      </c>
+      <c r="J24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+      <c r="D25" s="20">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0.1875</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" t="s">
+        <v>347</v>
+      </c>
+      <c r="I25" t="s">
+        <v>378</v>
+      </c>
+      <c r="J25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+      <c r="D26" s="20">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H26" t="s">
+        <v>347</v>
+      </c>
+      <c r="I26" t="s">
+        <v>378</v>
+      </c>
+      <c r="J26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>70</v>
+      </c>
+      <c r="D27" s="20">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H27" t="s">
+        <v>347</v>
+      </c>
+      <c r="I27" t="s">
+        <v>378</v>
+      </c>
+      <c r="J27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>60</v>
+      </c>
+      <c r="D28" s="20">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0.1875</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H28" t="s">
+        <v>347</v>
+      </c>
+      <c r="I28" t="s">
+        <v>378</v>
+      </c>
+      <c r="J28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B29">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>80</v>
+      </c>
+      <c r="D29" s="20">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H29" t="s">
+        <v>347</v>
+      </c>
+      <c r="I29" t="s">
+        <v>378</v>
+      </c>
+      <c r="J29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>70</v>
+      </c>
+      <c r="D30" s="20">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H30" t="s">
+        <v>347</v>
+      </c>
+      <c r="I30" t="s">
+        <v>378</v>
+      </c>
+      <c r="J30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H31" t="s">
+        <v>347</v>
+      </c>
+      <c r="I31" t="s">
+        <v>347</v>
+      </c>
+      <c r="J31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>55</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H32" t="s">
+        <v>347</v>
+      </c>
+      <c r="I32" t="s">
+        <v>347</v>
+      </c>
+      <c r="J32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33" s="20">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33" s="21">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H33" t="s">
+        <v>347</v>
+      </c>
+      <c r="I33" t="s">
+        <v>378</v>
+      </c>
+      <c r="J33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>36</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H34" t="s">
+        <v>347</v>
+      </c>
+      <c r="I34" t="s">
+        <v>347</v>
+      </c>
+      <c r="J34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>48</v>
+      </c>
+      <c r="D35" s="20">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H35" t="s">
+        <v>347</v>
+      </c>
+      <c r="I35" t="s">
+        <v>378</v>
+      </c>
+      <c r="J35" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>16</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H36" t="s">
+        <v>347</v>
+      </c>
+      <c r="I36" t="s">
+        <v>347</v>
+      </c>
+      <c r="J36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H37" t="s">
+        <v>347</v>
+      </c>
+      <c r="I37" t="s">
+        <v>347</v>
+      </c>
+      <c r="J37" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>27</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H38" t="s">
+        <v>347</v>
+      </c>
+      <c r="I38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J38" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>36</v>
+      </c>
+      <c r="D39" s="20">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" s="21">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H39" t="s">
+        <v>347</v>
+      </c>
+      <c r="I39" t="s">
+        <v>378</v>
+      </c>
+      <c r="J39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>36</v>
+      </c>
+      <c r="D40" s="20">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40" s="21">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H40" t="s">
+        <v>347</v>
+      </c>
+      <c r="I40" t="s">
+        <v>378</v>
+      </c>
+      <c r="J40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H41" t="s">
+        <v>347</v>
+      </c>
+      <c r="I41" t="s">
+        <v>347</v>
+      </c>
+      <c r="J41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>90</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H42" t="s">
+        <v>347</v>
+      </c>
+      <c r="I42" t="s">
+        <v>347</v>
+      </c>
+      <c r="J42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="B43">
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>120</v>
+      </c>
+      <c r="D43" s="20">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43" s="20">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H43" t="s">
+        <v>347</v>
+      </c>
+      <c r="I43" t="s">
+        <v>378</v>
+      </c>
+      <c r="J43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H44" t="s">
+        <v>347</v>
+      </c>
+      <c r="I44" t="s">
+        <v>347</v>
+      </c>
+      <c r="J44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>70</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H45" t="s">
+        <v>347</v>
+      </c>
+      <c r="I45" t="s">
+        <v>347</v>
+      </c>
+      <c r="J45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="B46">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>90</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H46" t="s">
+        <v>347</v>
+      </c>
+      <c r="I46" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="B47">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <v>55</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H47" t="s">
+        <v>347</v>
+      </c>
+      <c r="I47" t="s">
+        <v>347</v>
+      </c>
+      <c r="J47" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="B48">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>80</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H48" t="s">
+        <v>347</v>
+      </c>
+      <c r="I48" t="s">
+        <v>347</v>
+      </c>
+      <c r="J48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H49" t="s">
+        <v>347</v>
+      </c>
+      <c r="I49" t="s">
+        <v>347</v>
+      </c>
+      <c r="J49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="B50">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <v>65</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H50" t="s">
+        <v>347</v>
+      </c>
+      <c r="I50" t="s">
+        <v>347</v>
+      </c>
+      <c r="J50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>56</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H51" t="s">
+        <v>347</v>
+      </c>
+      <c r="I51" t="s">
+        <v>347</v>
+      </c>
+      <c r="J51" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>24</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H52" t="s">
+        <v>347</v>
+      </c>
+      <c r="I52" t="s">
+        <v>347</v>
+      </c>
+      <c r="J52" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>44</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H53" t="s">
+        <v>347</v>
+      </c>
+      <c r="I53" t="s">
+        <v>347</v>
+      </c>
+      <c r="J53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H54" t="s">
+        <v>347</v>
+      </c>
+      <c r="I54" t="s">
+        <v>347</v>
+      </c>
+      <c r="J54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="C55">
+        <v>42</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H55" t="s">
+        <v>347</v>
+      </c>
+      <c r="I55" t="s">
+        <v>347</v>
+      </c>
+      <c r="J55" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="B56">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>33</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H56" t="s">
+        <v>347</v>
+      </c>
+      <c r="I56" t="s">
+        <v>347</v>
+      </c>
+      <c r="J56" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>33</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H57" t="s">
+        <v>347</v>
+      </c>
+      <c r="I57" t="s">
+        <v>347</v>
+      </c>
+      <c r="J57" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58" s="20">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" s="21">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H58" t="s">
+        <v>347</v>
+      </c>
+      <c r="I58" t="s">
+        <v>378</v>
+      </c>
+      <c r="J58" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>18</v>
+      </c>
+      <c r="D59" s="20">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59" s="21">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H59" t="s">
+        <v>378</v>
+      </c>
+      <c r="I59" t="s">
+        <v>347</v>
+      </c>
+      <c r="J59" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="B60">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="D60" s="20">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60" s="21">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="H60" t="s">
+        <v>347</v>
+      </c>
+      <c r="I60" t="s">
+        <v>347</v>
+      </c>
+      <c r="J60" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>12</v>
+      </c>
+      <c r="D61" s="20">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" s="21">
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H61" t="s">
+        <v>347</v>
+      </c>
+      <c r="I61" t="s">
+        <v>378</v>
+      </c>
+      <c r="J61" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="B62">
+        <v>22</v>
+      </c>
+      <c r="C62">
+        <v>40</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H62" t="s">
+        <v>347</v>
+      </c>
+      <c r="I62" t="s">
+        <v>347</v>
+      </c>
+      <c r="J62" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="B63">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>26</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H63" t="s">
+        <v>347</v>
+      </c>
+      <c r="I63" t="s">
+        <v>347</v>
+      </c>
+      <c r="J63" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="B64">
+        <v>70</v>
+      </c>
+      <c r="C64">
+        <v>120</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H64" t="s">
+        <v>347</v>
+      </c>
+      <c r="I64" t="s">
+        <v>347</v>
+      </c>
+      <c r="J64" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H65" t="s">
+        <v>347</v>
+      </c>
+      <c r="I65" t="s">
+        <v>347</v>
+      </c>
+      <c r="J65" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>90</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E66">
+        <v>8</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H66" t="s">
+        <v>347</v>
+      </c>
+      <c r="I66" t="s">
+        <v>347</v>
+      </c>
+      <c r="J66" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="B67">
+        <v>60</v>
+      </c>
+      <c r="C67">
+        <v>120</v>
+      </c>
+      <c r="D67" s="20">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>8</v>
+      </c>
+      <c r="F67" s="20">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H67" t="s">
+        <v>347</v>
+      </c>
+      <c r="I67" t="s">
+        <v>378</v>
+      </c>
+      <c r="J67" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="B68">
+        <v>55</v>
+      </c>
+      <c r="C68">
+        <v>105</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E68">
+        <v>8</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H68" t="s">
+        <v>347</v>
+      </c>
+      <c r="I68" t="s">
+        <v>347</v>
+      </c>
+      <c r="J68" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="B69">
+        <v>16</v>
+      </c>
+      <c r="C69">
+        <v>32</v>
+      </c>
+      <c r="D69" s="20">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69" s="21">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H69" t="s">
+        <v>347</v>
+      </c>
+      <c r="I69" t="s">
+        <v>378</v>
+      </c>
+      <c r="J69" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="B70">
+        <v>16</v>
+      </c>
+      <c r="C70">
+        <v>24</v>
+      </c>
+      <c r="D70" s="20">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70" s="21">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H70" t="s">
+        <v>378</v>
+      </c>
+      <c r="I70" t="s">
+        <v>347</v>
+      </c>
+      <c r="J70" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="D71" s="20">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71" s="21">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H71" t="s">
+        <v>347</v>
+      </c>
+      <c r="I71" t="s">
+        <v>378</v>
+      </c>
+      <c r="J71" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>40</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H72" t="s">
+        <v>347</v>
+      </c>
+      <c r="I72" t="s">
+        <v>347</v>
+      </c>
+      <c r="J72" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="B73">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>26</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H73" t="s">
+        <v>347</v>
+      </c>
+      <c r="I73" t="s">
+        <v>347</v>
+      </c>
+      <c r="J73" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="B74">
+        <v>70</v>
+      </c>
+      <c r="C74">
+        <v>120</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H74" t="s">
+        <v>347</v>
+      </c>
+      <c r="I74" t="s">
+        <v>347</v>
+      </c>
+      <c r="J74" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B75">
+        <v>50</v>
+      </c>
+      <c r="C75">
+        <v>90</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E75">
+        <v>8</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H75" t="s">
+        <v>347</v>
+      </c>
+      <c r="I75" t="s">
+        <v>347</v>
+      </c>
+      <c r="J75" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="B76">
+        <v>60</v>
+      </c>
+      <c r="C76">
+        <v>120</v>
+      </c>
+      <c r="D76" s="20">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>8</v>
+      </c>
+      <c r="F76" s="20">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H76" t="s">
+        <v>347</v>
+      </c>
+      <c r="I76" t="s">
+        <v>378</v>
+      </c>
+      <c r="J76" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="B77">
+        <v>55</v>
+      </c>
+      <c r="C77">
+        <v>105</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H77" t="s">
+        <v>347</v>
+      </c>
+      <c r="I77" t="s">
+        <v>347</v>
+      </c>
+      <c r="J77" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78" s="20">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78" s="21">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H78" t="s">
+        <v>347</v>
+      </c>
+      <c r="I78" t="s">
+        <v>378</v>
+      </c>
+      <c r="J78" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>15</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H79" t="s">
+        <v>347</v>
+      </c>
+      <c r="I79" t="s">
+        <v>347</v>
+      </c>
+      <c r="J79" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="B80">
+        <v>15</v>
+      </c>
+      <c r="C80">
+        <v>25</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H80" t="s">
+        <v>347</v>
+      </c>
+      <c r="I80" t="s">
+        <v>347</v>
+      </c>
+      <c r="J80" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>40</v>
+      </c>
+      <c r="D81" s="20">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81" s="21">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="G81" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H81" t="s">
+        <v>347</v>
+      </c>
+      <c r="I81" t="s">
+        <v>378</v>
+      </c>
+      <c r="J81" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="B82">
+        <v>25</v>
+      </c>
+      <c r="C82">
+        <v>50</v>
+      </c>
+      <c r="D82" s="20">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82" s="21">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="G82" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H82" t="s">
+        <v>347</v>
+      </c>
+      <c r="I82" t="s">
+        <v>378</v>
+      </c>
+      <c r="J82" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="B83">
+        <v>20</v>
+      </c>
+      <c r="C83">
+        <v>40</v>
+      </c>
+      <c r="D83" s="20">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83" s="21">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H83" t="s">
+        <v>347</v>
+      </c>
+      <c r="I83" t="s">
+        <v>378</v>
+      </c>
+      <c r="J83" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B84">
+        <v>30</v>
+      </c>
+      <c r="C84">
+        <v>60</v>
+      </c>
+      <c r="D84" s="20">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84" s="21">
+        <v>0.1875</v>
+      </c>
+      <c r="G84" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H84" t="s">
+        <v>347</v>
+      </c>
+      <c r="I84" t="s">
+        <v>378</v>
+      </c>
+      <c r="J84" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="B85">
+        <v>25</v>
+      </c>
+      <c r="C85">
+        <v>50</v>
+      </c>
+      <c r="D85" s="20">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85" s="21">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H85" t="s">
+        <v>347</v>
+      </c>
+      <c r="I85" t="s">
+        <v>378</v>
+      </c>
+      <c r="J85" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>15</v>
+      </c>
+      <c r="D86" s="20">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86" s="21">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H86" t="s">
+        <v>347</v>
+      </c>
+      <c r="I86" t="s">
+        <v>347</v>
+      </c>
+      <c r="J86" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H87" t="s">
+        <v>347</v>
+      </c>
+      <c r="I87" t="s">
+        <v>347</v>
+      </c>
+      <c r="J87" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="B88">
+        <v>20</v>
+      </c>
+      <c r="C88">
+        <v>35</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H88" t="s">
+        <v>347</v>
+      </c>
+      <c r="I88" t="s">
+        <v>347</v>
+      </c>
+      <c r="J88" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="B89">
+        <v>60</v>
+      </c>
+      <c r="C89">
+        <v>120</v>
+      </c>
+      <c r="D89" s="20">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
+      <c r="F89" s="20">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H89" t="s">
+        <v>347</v>
+      </c>
+      <c r="I89" t="s">
+        <v>378</v>
+      </c>
+      <c r="J89" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="B90">
+        <v>24</v>
+      </c>
+      <c r="C90">
+        <v>48</v>
+      </c>
+      <c r="D90" s="20">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90" s="21">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="G90" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H90" t="s">
+        <v>347</v>
+      </c>
+      <c r="I90" t="s">
+        <v>378</v>
+      </c>
+      <c r="J90" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="B91">
+        <v>24</v>
+      </c>
+      <c r="C91">
+        <v>60</v>
+      </c>
+      <c r="D91" s="20">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91" s="21">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="H91" t="s">
+        <v>347</v>
+      </c>
+      <c r="I91" t="s">
+        <v>347</v>
+      </c>
+      <c r="J91" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>18</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H92" t="s">
+        <v>347</v>
+      </c>
+      <c r="I92" t="s">
+        <v>347</v>
+      </c>
+      <c r="J92" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B93">
+        <v>60</v>
+      </c>
+      <c r="C93">
+        <v>150</v>
+      </c>
+      <c r="D93" s="20">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>7</v>
+      </c>
+      <c r="F93" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="H93" t="s">
+        <v>347</v>
+      </c>
+      <c r="I93" t="s">
+        <v>347</v>
+      </c>
+      <c r="J93" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="B94">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>40</v>
+      </c>
+      <c r="D94" s="20">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94" s="21">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="H94" t="s">
+        <v>347</v>
+      </c>
+      <c r="I94" t="s">
+        <v>347</v>
+      </c>
+      <c r="J94" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>22</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="G95" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H95" t="s">
+        <v>347</v>
+      </c>
+      <c r="I95" t="s">
+        <v>347</v>
+      </c>
+      <c r="J95" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="B96">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <v>28</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H96" t="s">
+        <v>347</v>
+      </c>
+      <c r="I96" t="s">
+        <v>347</v>
+      </c>
+      <c r="J96" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>24</v>
+      </c>
+      <c r="D97" s="20">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97" s="21">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H97" t="s">
+        <v>347</v>
+      </c>
+      <c r="I97" t="s">
+        <v>378</v>
+      </c>
+      <c r="J97" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>16</v>
+      </c>
+      <c r="D98" s="20">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98" s="21">
+        <v>0.17222222222222225</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H98" t="s">
+        <v>347</v>
+      </c>
+      <c r="I98" t="s">
+        <v>378</v>
+      </c>
+      <c r="J98" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="B99">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="G99" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H99" t="s">
+        <v>347</v>
+      </c>
+      <c r="I99" t="s">
+        <v>347</v>
+      </c>
+      <c r="J99" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B100">
+        <v>16</v>
+      </c>
+      <c r="C100">
+        <v>32</v>
+      </c>
+      <c r="D100" s="20">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100" s="21">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="G100" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H100" t="s">
+        <v>347</v>
+      </c>
+      <c r="I100" t="s">
+        <v>378</v>
+      </c>
+      <c r="J100" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="B101">
+        <v>16</v>
+      </c>
+      <c r="C101">
+        <v>32</v>
+      </c>
+      <c r="D101" s="20">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101" s="21">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="G101" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H101" t="s">
+        <v>347</v>
+      </c>
+      <c r="I101" t="s">
+        <v>378</v>
+      </c>
+      <c r="J101" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>8</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="G102" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H102" t="s">
+        <v>347</v>
+      </c>
+      <c r="I102" t="s">
+        <v>347</v>
+      </c>
+      <c r="J102" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="B103">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>16</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="G103" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H103" t="s">
+        <v>378</v>
+      </c>
+      <c r="I103" t="s">
+        <v>378</v>
+      </c>
+      <c r="J103" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104" s="20">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" s="21">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="G104" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H104" t="s">
+        <v>347</v>
+      </c>
+      <c r="I104" t="s">
+        <v>347</v>
+      </c>
+      <c r="J104" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>9</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="G105" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H105" t="s">
+        <v>347</v>
+      </c>
+      <c r="I105" t="s">
+        <v>347</v>
+      </c>
+      <c r="J105" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>15</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="G106" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H106" t="s">
+        <v>347</v>
+      </c>
+      <c r="I106" t="s">
+        <v>347</v>
+      </c>
+      <c r="J106" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="B107">
+        <v>18</v>
+      </c>
+      <c r="C107">
+        <v>36</v>
+      </c>
+      <c r="D107" s="20">
+        <v>4</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107" s="21">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="G107" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H107" t="s">
+        <v>347</v>
+      </c>
+      <c r="I107" t="s">
+        <v>378</v>
+      </c>
+      <c r="J107" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="B108">
+        <v>30</v>
+      </c>
+      <c r="C108">
+        <v>60</v>
+      </c>
+      <c r="D108" s="20">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+      <c r="F108" s="21">
+        <v>0.1875</v>
+      </c>
+      <c r="G108" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H108" t="s">
+        <v>347</v>
+      </c>
+      <c r="I108" t="s">
+        <v>378</v>
+      </c>
+      <c r="J108" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="B109">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>9</v>
+      </c>
+      <c r="D109" s="20">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109" s="21">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="G109" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H109" t="s">
+        <v>347</v>
+      </c>
+      <c r="I109" t="s">
+        <v>347</v>
+      </c>
+      <c r="J109" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="B110">
+        <v>23</v>
+      </c>
+      <c r="C110">
+        <v>45</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="G110" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H110" t="s">
+        <v>347</v>
+      </c>
+      <c r="I110" t="s">
+        <v>347</v>
+      </c>
+      <c r="J110" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="B111">
+        <v>15</v>
+      </c>
+      <c r="C111">
+        <v>30</v>
+      </c>
+      <c r="D111" s="20">
+        <v>4</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="F111" s="21">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="G111" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H111" t="s">
+        <v>347</v>
+      </c>
+      <c r="I111" t="s">
+        <v>378</v>
+      </c>
+      <c r="J111" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>21</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="G112" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H112" t="s">
+        <v>347</v>
+      </c>
+      <c r="I112" t="s">
+        <v>347</v>
+      </c>
+      <c r="J112" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="B113">
+        <v>75</v>
+      </c>
+      <c r="C113">
+        <v>135</v>
+      </c>
+      <c r="D113" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E113">
+        <v>10</v>
+      </c>
+      <c r="F113" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="G113" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H113" t="s">
+        <v>347</v>
+      </c>
+      <c r="I113" t="s">
+        <v>347</v>
+      </c>
+      <c r="J113" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="B114">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>15</v>
+      </c>
+      <c r="D114" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="G114" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H114" t="s">
+        <v>347</v>
+      </c>
+      <c r="I114" t="s">
+        <v>347</v>
+      </c>
+      <c r="J114" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="B115">
+        <v>45</v>
+      </c>
+      <c r="C115">
+        <v>75</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E115">
+        <v>8</v>
+      </c>
+      <c r="F115" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="G115" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H115" t="s">
+        <v>347</v>
+      </c>
+      <c r="I115" t="s">
+        <v>347</v>
+      </c>
+      <c r="J115" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="B116">
+        <v>60</v>
+      </c>
+      <c r="C116">
+        <v>120</v>
+      </c>
+      <c r="D116" s="20">
+        <v>4</v>
+      </c>
+      <c r="E116">
+        <v>8</v>
+      </c>
+      <c r="F116" s="20">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G116" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H116" t="s">
+        <v>347</v>
+      </c>
+      <c r="I116" t="s">
+        <v>378</v>
+      </c>
+      <c r="J116" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="B117">
+        <v>24</v>
+      </c>
+      <c r="C117">
+        <v>36</v>
+      </c>
+      <c r="D117" s="20">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>6</v>
+      </c>
+      <c r="F117" s="21">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="G117" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H117" t="s">
+        <v>347</v>
+      </c>
+      <c r="I117" t="s">
+        <v>347</v>
+      </c>
+      <c r="J117" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="B118">
+        <v>48</v>
+      </c>
+      <c r="C118">
+        <v>72</v>
+      </c>
+      <c r="D118" s="20">
+        <v>3</v>
+      </c>
+      <c r="E118">
+        <v>9</v>
+      </c>
+      <c r="F118" s="21">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="G118" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H118" t="s">
+        <v>378</v>
+      </c>
+      <c r="I118" t="s">
+        <v>347</v>
+      </c>
+      <c r="J118" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="B119">
+        <v>60</v>
+      </c>
+      <c r="C119">
+        <v>90</v>
+      </c>
+      <c r="D119" s="20">
+        <v>3</v>
+      </c>
+      <c r="E119">
+        <v>10</v>
+      </c>
+      <c r="F119" s="20">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G119" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H119" t="s">
+        <v>347</v>
+      </c>
+      <c r="I119" t="s">
+        <v>347</v>
+      </c>
+      <c r="J119" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="B120">
+        <v>60</v>
+      </c>
+      <c r="C120">
+        <v>90</v>
+      </c>
+      <c r="D120" s="20">
+        <v>3</v>
+      </c>
+      <c r="E120">
+        <v>9</v>
+      </c>
+      <c r="F120" s="20">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G120" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H120" t="s">
+        <v>347</v>
+      </c>
+      <c r="I120" t="s">
+        <v>347</v>
+      </c>
+      <c r="J120" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <v>180</v>
+      </c>
+      <c r="D121" s="20">
+        <v>3</v>
+      </c>
+      <c r="E121">
+        <v>15</v>
+      </c>
+      <c r="F121" s="20">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G121" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H121" t="s">
+        <v>378</v>
+      </c>
+      <c r="I121" t="s">
+        <v>347</v>
+      </c>
+      <c r="J121" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="B122">
+        <v>24</v>
+      </c>
+      <c r="C122">
+        <v>36</v>
+      </c>
+      <c r="D122" s="20">
+        <v>3</v>
+      </c>
+      <c r="E122">
+        <v>6</v>
+      </c>
+      <c r="F122" s="21">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="G122" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H122" t="s">
+        <v>378</v>
+      </c>
+      <c r="I122" t="s">
+        <v>347</v>
+      </c>
+      <c r="J122" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="B123">
+        <v>12</v>
+      </c>
+      <c r="C123">
+        <v>18</v>
+      </c>
+      <c r="D123" s="20">
+        <v>3</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123" s="21">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="G123" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H123" t="s">
+        <v>347</v>
+      </c>
+      <c r="I123" t="s">
+        <v>347</v>
+      </c>
+      <c r="J123" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="B125" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="B126">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B127">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="B128">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="B129" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="B130">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="B131">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J123" xr:uid="{4847D633-DD0F-4FBA-9BE8-9FCC37D3DF7C}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="yes"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:J108">
+      <sortCondition ref="C1:C123"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB613E5-AB2B-4180-8A79-D3EADA588991}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N124"/>
@@ -12209,7 +16872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473EBFCD-D42D-412B-8E25-A762E06CBF2F}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H124"/>
@@ -14440,7 +19103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEABC9F7-42E1-4131-A20B-D55AA87974D3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14455,7 +19118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB2F16E-ABB8-42B9-8872-AED4E45F0FF4}">
   <dimension ref="K5:U51"/>
   <sheetViews>
@@ -14785,7 +19448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57B1D08-4932-4E44-BD71-876668580D66}">
   <dimension ref="M10:M48"/>
   <sheetViews>
@@ -14974,7 +19637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74602506-DFB9-4A49-99FC-F98F7F1490DD}">
   <dimension ref="M5:M67"/>
   <sheetViews>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardware\63_Glowing_Polyhedrons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4406BDD1-45DF-4C38-B66F-9F876BBB7EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E45D950-7CE0-43BA-B255-C036D8B9ED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{5BF2D058-20B1-4E68-B932-3EECD9DE5D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Eulerian Objects" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId3"/>
     <sheet name="Cycle_decomp" sheetId="9" r:id="rId4"/>
     <sheet name="cycle_decomp_unqique" sheetId="10" r:id="rId5"/>
     <sheet name="heart" sheetId="6" r:id="rId6"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Cycle_decomp!$A$1:$H$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">cycle_decomp_unqique!$A$1:$H$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Eulerian Objects'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$J$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$K$123</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="541">
   <si>
     <t>Cube</t>
   </si>
@@ -1659,6 +1659,9 @@
   </si>
   <si>
     <t>Regular total</t>
+  </si>
+  <si>
+    <t>g1(G)</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1809,15 +1812,14 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2493,34 +2495,34 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
-      <c r="Y5" s="18" t="s">
+      <c r="Y5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
     </row>
     <row r="6" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C6" s="14"/>
@@ -8046,30 +8048,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4847D633-DD0F-4FBA-9BE8-9FCC37D3DF7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB137C1E-EA94-4F09-A86A-4BD23B8A4736}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="A19" sqref="A19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>333</v>
       </c>
       <c r="B1" t="s">
@@ -8078,1268 +8080,1385 @@
       <c r="C1" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>336</v>
       </c>
       <c r="E1" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" t="s">
         <v>339</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>340</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>341</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>343</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>496</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>35</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>344</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="18">
+        <v>2</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="19">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>497</v>
+      </c>
+      <c r="I2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="18">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="H3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3" t="s">
+        <v>347</v>
+      </c>
+      <c r="J3" t="s">
+        <v>347</v>
+      </c>
+      <c r="K3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="H4" t="s">
         <v>346</v>
       </c>
-      <c r="H2" t="s">
-        <v>347</v>
-      </c>
-      <c r="I2" t="s">
-        <v>347</v>
-      </c>
-      <c r="J2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="B3">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>22</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="I4" t="s">
+        <v>347</v>
+      </c>
+      <c r="J4" t="s">
+        <v>347</v>
+      </c>
+      <c r="K4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="H5" t="s">
         <v>346</v>
       </c>
-      <c r="H3" t="s">
-        <v>347</v>
-      </c>
-      <c r="I3" t="s">
-        <v>347</v>
-      </c>
-      <c r="J3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>19</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E4">
+      <c r="I5" t="s">
+        <v>347</v>
+      </c>
+      <c r="J5" t="s">
+        <v>347</v>
+      </c>
+      <c r="K5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6" s="18">
         <v>3</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I4" t="s">
-        <v>347</v>
-      </c>
-      <c r="J4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>26</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H5" t="s">
-        <v>347</v>
-      </c>
-      <c r="I5" t="s">
-        <v>347</v>
-      </c>
-      <c r="J5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>349</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="H6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J6" t="s">
+        <v>347</v>
+      </c>
+      <c r="K6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="H7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8" s="18">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="H8" t="s">
+        <v>377</v>
+      </c>
+      <c r="I8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J8" t="s">
+        <v>347</v>
+      </c>
+      <c r="K8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="H9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J9" t="s">
+        <v>347</v>
+      </c>
+      <c r="K9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10" s="18">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="H10" t="s">
+        <v>380</v>
+      </c>
+      <c r="I10" t="s">
+        <v>347</v>
+      </c>
+      <c r="J10" t="s">
+        <v>378</v>
+      </c>
+      <c r="K10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="H11" t="s">
         <v>346</v>
       </c>
-      <c r="H6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I6" t="s">
-        <v>347</v>
-      </c>
-      <c r="J6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>18</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H7" t="s">
-        <v>347</v>
-      </c>
-      <c r="I7" t="s">
-        <v>347</v>
-      </c>
-      <c r="J7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="B8">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>48</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H8" t="s">
-        <v>347</v>
-      </c>
-      <c r="I8" t="s">
-        <v>347</v>
-      </c>
-      <c r="J8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="B9">
-        <v>65</v>
-      </c>
-      <c r="C9">
-        <v>105</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H9" t="s">
-        <v>347</v>
-      </c>
-      <c r="I9" t="s">
-        <v>347</v>
-      </c>
-      <c r="J9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>27</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H10" t="s">
-        <v>347</v>
-      </c>
-      <c r="I10" t="s">
-        <v>347</v>
-      </c>
-      <c r="J10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>23</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H11" t="s">
-        <v>347</v>
-      </c>
       <c r="I11" t="s">
         <v>347</v>
       </c>
       <c r="J11" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>368</v>
+      <c r="K11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>417</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12">
-        <v>17</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>354</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>349</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="G12" s="20" t="s">
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="H12" t="s">
         <v>346</v>
       </c>
-      <c r="H12" t="s">
-        <v>347</v>
-      </c>
       <c r="I12" t="s">
         <v>347</v>
       </c>
       <c r="J12" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>370</v>
+      <c r="K12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>407</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>60</v>
-      </c>
-      <c r="D13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>349</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
         <v>6</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="H13" t="s">
         <v>346</v>
       </c>
-      <c r="H13" t="s">
-        <v>347</v>
-      </c>
       <c r="I13" t="s">
         <v>347</v>
       </c>
       <c r="J13" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>372</v>
+      <c r="K13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>470</v>
       </c>
       <c r="B14">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>105</v>
-      </c>
-      <c r="D14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="H14" t="s">
+        <v>346</v>
+      </c>
+      <c r="I14" t="s">
+        <v>347</v>
+      </c>
+      <c r="J14" t="s">
+        <v>347</v>
+      </c>
+      <c r="K14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" s="18">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="H15" t="s">
+        <v>377</v>
+      </c>
+      <c r="I15" t="s">
+        <v>347</v>
+      </c>
+      <c r="J15" t="s">
+        <v>347</v>
+      </c>
+      <c r="K15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>511</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>349</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H14" t="s">
-        <v>347</v>
-      </c>
-      <c r="I14" t="s">
-        <v>347</v>
-      </c>
-      <c r="J14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>26</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H15" t="s">
-        <v>347</v>
-      </c>
-      <c r="I15" t="s">
-        <v>347</v>
-      </c>
-      <c r="J15" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16" s="20">
-        <v>3</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" s="21">
-        <v>0.13055555555555556</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>377</v>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>512</v>
       </c>
       <c r="H16" t="s">
+        <v>346</v>
+      </c>
+      <c r="I16" t="s">
+        <v>347</v>
+      </c>
+      <c r="J16" t="s">
+        <v>347</v>
+      </c>
+      <c r="K16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>523</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="H17" t="s">
+        <v>346</v>
+      </c>
+      <c r="I17" t="s">
+        <v>347</v>
+      </c>
+      <c r="J17" t="s">
+        <v>347</v>
+      </c>
+      <c r="K17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="H18" t="s">
+        <v>346</v>
+      </c>
+      <c r="I18" t="s">
+        <v>347</v>
+      </c>
+      <c r="J18" t="s">
+        <v>347</v>
+      </c>
+      <c r="K18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>498</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" s="18">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0.17222222222222225</v>
+      </c>
+      <c r="H19" t="s">
+        <v>380</v>
+      </c>
+      <c r="I19" t="s">
+        <v>347</v>
+      </c>
+      <c r="J19" t="s">
         <v>378</v>
       </c>
-      <c r="I16" t="s">
-        <v>347</v>
-      </c>
-      <c r="J16" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="B17">
+      <c r="K19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>505</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" s="20">
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="G20" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="H20" t="s">
+        <v>346</v>
+      </c>
+      <c r="I20" t="s">
+        <v>378</v>
+      </c>
+      <c r="J20" t="s">
+        <v>378</v>
+      </c>
+      <c r="K20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F17" s="21">
-        <v>8.6111111111111124E-2</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="H17" t="s">
-        <v>378</v>
-      </c>
-      <c r="I17" t="s">
-        <v>378</v>
-      </c>
-      <c r="J17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="B18">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>40</v>
-      </c>
-      <c r="D18" s="20">
-        <v>4</v>
-      </c>
-      <c r="E18">
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="H21" t="s">
+        <v>346</v>
+      </c>
+      <c r="I21" t="s">
+        <v>347</v>
+      </c>
+      <c r="J21" t="s">
+        <v>347</v>
+      </c>
+      <c r="K21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
         <v>5</v>
       </c>
-      <c r="F18" s="21">
-        <v>0.18055555555555555</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H18" t="s">
-        <v>347</v>
-      </c>
-      <c r="I18" t="s">
-        <v>378</v>
-      </c>
-      <c r="J18" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="B19">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>30</v>
-      </c>
-      <c r="D19" s="20">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19" s="21">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="H19" t="s">
-        <v>378</v>
-      </c>
-      <c r="I19" t="s">
-        <v>347</v>
-      </c>
-      <c r="J19" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="B20">
-        <v>55</v>
-      </c>
-      <c r="C20">
-        <v>105</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="G20" s="20" t="s">
+      <c r="G22" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="H22" t="s">
         <v>346</v>
       </c>
-      <c r="H20" t="s">
-        <v>347</v>
-      </c>
-      <c r="I20" t="s">
-        <v>347</v>
-      </c>
-      <c r="J20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="B21">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>38</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H21" t="s">
-        <v>347</v>
-      </c>
-      <c r="I21" t="s">
-        <v>347</v>
-      </c>
-      <c r="J21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>30</v>
-      </c>
-      <c r="D22" s="20">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22" s="21">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="H22" t="s">
-        <v>347</v>
-      </c>
       <c r="I22" t="s">
         <v>347</v>
       </c>
       <c r="J22" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>387</v>
+      <c r="K22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>446</v>
       </c>
       <c r="B23">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>25</v>
-      </c>
-      <c r="D23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="18">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="H23" t="s">
+        <v>377</v>
+      </c>
+      <c r="I23" t="s">
+        <v>378</v>
+      </c>
+      <c r="J23" t="s">
+        <v>347</v>
+      </c>
+      <c r="K23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>488</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="E23">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="H24" t="s">
+        <v>346</v>
+      </c>
+      <c r="I24" t="s">
+        <v>347</v>
+      </c>
+      <c r="J24" t="s">
+        <v>347</v>
+      </c>
+      <c r="K24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>533</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25" s="18">
         <v>3</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="G23" s="20" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="H25" t="s">
+        <v>377</v>
+      </c>
+      <c r="I25" t="s">
+        <v>347</v>
+      </c>
+      <c r="J25" t="s">
+        <v>347</v>
+      </c>
+      <c r="K25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>351</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="H26" t="s">
         <v>346</v>
       </c>
-      <c r="H23" t="s">
-        <v>347</v>
-      </c>
-      <c r="I23" t="s">
-        <v>347</v>
-      </c>
-      <c r="J23" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="B24">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>45</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E24">
+      <c r="I26" t="s">
+        <v>347</v>
+      </c>
+      <c r="J26" t="s">
+        <v>347</v>
+      </c>
+      <c r="K26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>397</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="G24" s="20" t="s">
+      <c r="G27" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="H27" t="s">
         <v>346</v>
       </c>
-      <c r="H24" t="s">
-        <v>347</v>
-      </c>
-      <c r="I24" t="s">
-        <v>347</v>
-      </c>
-      <c r="J24" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="B25">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>60</v>
-      </c>
-      <c r="D25" s="20">
+      <c r="I27" t="s">
+        <v>347</v>
+      </c>
+      <c r="J27" t="s">
+        <v>347</v>
+      </c>
+      <c r="K27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>401</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28" s="18">
         <v>4</v>
       </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0.1875</v>
-      </c>
-      <c r="G25" s="20" t="s">
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="H28" t="s">
         <v>380</v>
       </c>
-      <c r="H25" t="s">
-        <v>347</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="I28" t="s">
+        <v>347</v>
+      </c>
+      <c r="J28" t="s">
         <v>378</v>
       </c>
-      <c r="J25" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="B26">
-        <v>40</v>
-      </c>
-      <c r="C26">
-        <v>80</v>
-      </c>
-      <c r="D26" s="20">
+      <c r="K28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>437</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="H29" t="s">
+        <v>346</v>
+      </c>
+      <c r="I29" t="s">
+        <v>347</v>
+      </c>
+      <c r="J29" t="s">
+        <v>347</v>
+      </c>
+      <c r="K29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>455</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
         <v>4</v>
       </c>
-      <c r="E26">
-        <v>6</v>
-      </c>
-      <c r="F26" s="21">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H26" t="s">
-        <v>347</v>
-      </c>
-      <c r="I26" t="s">
-        <v>378</v>
-      </c>
-      <c r="J26" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="B27">
-        <v>35</v>
-      </c>
-      <c r="C27">
-        <v>70</v>
-      </c>
-      <c r="D27" s="20">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27" s="21">
-        <v>0.19097222222222221</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H27" t="s">
-        <v>347</v>
-      </c>
-      <c r="I27" t="s">
-        <v>378</v>
-      </c>
-      <c r="J27" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="B28">
-        <v>30</v>
-      </c>
-      <c r="C28">
-        <v>60</v>
-      </c>
-      <c r="D28" s="20">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28" s="21">
-        <v>0.1875</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H28" t="s">
-        <v>347</v>
-      </c>
-      <c r="I28" t="s">
-        <v>378</v>
-      </c>
-      <c r="J28" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="B29">
-        <v>40</v>
-      </c>
-      <c r="C29">
-        <v>80</v>
-      </c>
-      <c r="D29" s="20">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29" s="21">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H29" t="s">
-        <v>347</v>
-      </c>
-      <c r="I29" t="s">
-        <v>378</v>
-      </c>
-      <c r="J29" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="B30">
-        <v>35</v>
-      </c>
-      <c r="C30">
-        <v>70</v>
-      </c>
-      <c r="D30" s="20">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="F30" s="21">
-        <v>0.19097222222222221</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>380</v>
+      <c r="G30" s="18" t="s">
+        <v>456</v>
       </c>
       <c r="H30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I30" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="J30" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>397</v>
+      <c r="K30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>469</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>20</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>344</v>
+      <c r="D31" s="18">
+        <v>4</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
-      <c r="F31" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="G31" s="20" t="s">
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" s="19">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="H31" t="s">
+        <v>380</v>
+      </c>
+      <c r="I31" t="s">
+        <v>347</v>
+      </c>
+      <c r="J31" t="s">
+        <v>378</v>
+      </c>
+      <c r="K31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>499</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="H32" t="s">
         <v>346</v>
       </c>
-      <c r="H31" t="s">
-        <v>347</v>
-      </c>
-      <c r="I31" t="s">
-        <v>347</v>
-      </c>
-      <c r="J31" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="B32">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <v>55</v>
-      </c>
-      <c r="D32" s="20" t="s">
+      <c r="I32" t="s">
+        <v>347</v>
+      </c>
+      <c r="J32" t="s">
+        <v>347</v>
+      </c>
+      <c r="K32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>519</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>21</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="H33" t="s">
+        <v>346</v>
+      </c>
+      <c r="I33" t="s">
+        <v>347</v>
+      </c>
+      <c r="J33" t="s">
+        <v>347</v>
+      </c>
+      <c r="K33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>348</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="E32">
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="H34" t="s">
+        <v>346</v>
+      </c>
+      <c r="I34" t="s">
+        <v>347</v>
+      </c>
+      <c r="J34" t="s">
+        <v>347</v>
+      </c>
+      <c r="K34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>492</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>22</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
         <v>6</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="G32" s="20" t="s">
+      <c r="G35" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="H35" t="s">
         <v>346</v>
       </c>
-      <c r="H32" t="s">
-        <v>347</v>
-      </c>
-      <c r="I32" t="s">
-        <v>347</v>
-      </c>
-      <c r="J32" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>20</v>
-      </c>
-      <c r="D33" s="20">
-        <v>4</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33" s="21">
-        <v>0.17361111111111113</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H33" t="s">
-        <v>347</v>
-      </c>
-      <c r="I33" t="s">
-        <v>378</v>
-      </c>
-      <c r="J33" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="B34">
-        <v>20</v>
-      </c>
-      <c r="C34">
-        <v>36</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H34" t="s">
-        <v>347</v>
-      </c>
-      <c r="I34" t="s">
-        <v>347</v>
-      </c>
-      <c r="J34" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="B35">
-        <v>24</v>
-      </c>
-      <c r="C35">
-        <v>48</v>
-      </c>
-      <c r="D35" s="20">
-        <v>4</v>
-      </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="F35" s="21">
-        <v>0.18333333333333335</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H35" t="s">
-        <v>347</v>
-      </c>
       <c r="I35" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="J35" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
-        <v>405</v>
+      <c r="K35" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>366</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>16</v>
-      </c>
-      <c r="D36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>349</v>
       </c>
       <c r="E36">
         <v>3</v>
       </c>
-      <c r="F36" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="G36" s="20" t="s">
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="H36" t="s">
         <v>346</v>
       </c>
-      <c r="H36" t="s">
-        <v>347</v>
-      </c>
       <c r="I36" t="s">
         <v>347</v>
       </c>
       <c r="J36" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>407</v>
+      <c r="K36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>379</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>15</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>349</v>
+        <v>24</v>
+      </c>
+      <c r="D37" s="18">
+        <v>4</v>
       </c>
       <c r="E37">
         <v>3</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="G37" s="20" t="s">
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" s="19">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="H37" t="s">
+        <v>380</v>
+      </c>
+      <c r="I37" t="s">
+        <v>347</v>
+      </c>
+      <c r="J37" t="s">
+        <v>378</v>
+      </c>
+      <c r="K37" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>433</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="H38" t="s">
         <v>346</v>
       </c>
-      <c r="H37" t="s">
-        <v>347</v>
-      </c>
-      <c r="I37" t="s">
-        <v>347</v>
-      </c>
-      <c r="J37" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="B38">
-        <v>15</v>
-      </c>
-      <c r="C38">
-        <v>27</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E38">
+      <c r="I38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J38" t="s">
+        <v>347</v>
+      </c>
+      <c r="K38" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>445</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>24</v>
+      </c>
+      <c r="D39" s="18">
         <v>4</v>
       </c>
-      <c r="F38" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H38" t="s">
-        <v>347</v>
-      </c>
-      <c r="I38" t="s">
-        <v>347</v>
-      </c>
-      <c r="J38" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="B39">
-        <v>18</v>
-      </c>
-      <c r="C39">
-        <v>36</v>
-      </c>
-      <c r="D39" s="20">
-        <v>4</v>
-      </c>
       <c r="E39">
-        <v>4</v>
-      </c>
-      <c r="F39" s="21">
-        <v>0.17916666666666667</v>
-      </c>
-      <c r="G39" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" s="19">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="H39" t="s">
         <v>380</v>
       </c>
-      <c r="H39" t="s">
-        <v>347</v>
-      </c>
       <c r="I39" t="s">
+        <v>347</v>
+      </c>
+      <c r="J39" t="s">
         <v>378</v>
       </c>
-      <c r="J39" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
-        <v>411</v>
+      <c r="K39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>461</v>
       </c>
       <c r="B40">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40">
-        <v>36</v>
-      </c>
-      <c r="D40" s="20">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="D40" s="18">
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40" s="21">
-        <v>0.17916666666666667</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>380</v>
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" s="19">
+        <v>0.1361111111111111</v>
       </c>
       <c r="H40" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="I40" t="s">
         <v>378</v>
@@ -9347,415 +9466,454 @@
       <c r="J40" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
-        <v>412</v>
+      <c r="K40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>514</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41" s="18">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" s="19">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="H41" t="s">
+        <v>380</v>
+      </c>
+      <c r="I41" t="s">
+        <v>347</v>
+      </c>
+      <c r="J41" t="s">
+        <v>378</v>
+      </c>
+      <c r="K41" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>387</v>
+      </c>
+      <c r="B42">
         <v>12</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="C42">
+        <v>25</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="H42" t="s">
+        <v>346</v>
+      </c>
+      <c r="I42" t="s">
+        <v>347</v>
+      </c>
+      <c r="J42" t="s">
+        <v>347</v>
+      </c>
+      <c r="K42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>25</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="H43" t="s">
+        <v>346</v>
+      </c>
+      <c r="I43" t="s">
+        <v>347</v>
+      </c>
+      <c r="J43" t="s">
+        <v>347</v>
+      </c>
+      <c r="K43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>472</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="E41">
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="H44" t="s">
+        <v>346</v>
+      </c>
+      <c r="I44" t="s">
+        <v>347</v>
+      </c>
+      <c r="J44" t="s">
+        <v>347</v>
+      </c>
+      <c r="K44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>353</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>26</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="H45" t="s">
+        <v>346</v>
+      </c>
+      <c r="I45" t="s">
+        <v>347</v>
+      </c>
+      <c r="J45" t="s">
+        <v>347</v>
+      </c>
+      <c r="K45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>374</v>
+      </c>
+      <c r="B46">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>26</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="H46" t="s">
+        <v>346</v>
+      </c>
+      <c r="I46" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" t="s">
+        <v>347</v>
+      </c>
+      <c r="K46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>452</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>26</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="H47" t="s">
+        <v>346</v>
+      </c>
+      <c r="I47" t="s">
+        <v>347</v>
+      </c>
+      <c r="J47" t="s">
+        <v>347</v>
+      </c>
+      <c r="K47" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>464</v>
+      </c>
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>26</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="H48" t="s">
+        <v>346</v>
+      </c>
+      <c r="I48" t="s">
+        <v>347</v>
+      </c>
+      <c r="J48" t="s">
+        <v>347</v>
+      </c>
+      <c r="K48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>364</v>
+      </c>
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>27</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H49" t="s">
+        <v>346</v>
+      </c>
+      <c r="I49" t="s">
+        <v>347</v>
+      </c>
+      <c r="J49" t="s">
+        <v>347</v>
+      </c>
+      <c r="K49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>409</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>27</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="H50" t="s">
+        <v>346</v>
+      </c>
+      <c r="I50" t="s">
+        <v>347</v>
+      </c>
+      <c r="J50" t="s">
+        <v>347</v>
+      </c>
+      <c r="K50" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>494</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>28</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="H51" t="s">
+        <v>346</v>
+      </c>
+      <c r="I51" t="s">
+        <v>347</v>
+      </c>
+      <c r="J51" t="s">
+        <v>347</v>
+      </c>
+      <c r="K51" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>382</v>
+      </c>
+      <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>30</v>
+      </c>
+      <c r="D52" s="18">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
         <v>2</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H41" t="s">
-        <v>347</v>
-      </c>
-      <c r="I41" t="s">
-        <v>347</v>
-      </c>
-      <c r="J41" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="B42">
-        <v>50</v>
-      </c>
-      <c r="C42">
-        <v>90</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E42">
-        <v>8</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H42" t="s">
-        <v>347</v>
-      </c>
-      <c r="I42" t="s">
-        <v>347</v>
-      </c>
-      <c r="J42" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="B43">
-        <v>60</v>
-      </c>
-      <c r="C43">
-        <v>120</v>
-      </c>
-      <c r="D43" s="20">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>8</v>
-      </c>
-      <c r="F43" s="20">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H43" t="s">
-        <v>347</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="G52" s="19">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="H52" t="s">
+        <v>377</v>
+      </c>
+      <c r="I52" t="s">
         <v>378</v>
       </c>
-      <c r="J43" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <v>14</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H44" t="s">
-        <v>347</v>
-      </c>
-      <c r="I44" t="s">
-        <v>347</v>
-      </c>
-      <c r="J44" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="B45">
-        <v>30</v>
-      </c>
-      <c r="C45">
-        <v>70</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E45">
-        <v>5</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H45" t="s">
-        <v>347</v>
-      </c>
-      <c r="I45" t="s">
-        <v>347</v>
-      </c>
-      <c r="J45" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="B46">
-        <v>40</v>
-      </c>
-      <c r="C46">
-        <v>90</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E46">
-        <v>6</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H46" t="s">
-        <v>347</v>
-      </c>
-      <c r="I46" t="s">
-        <v>347</v>
-      </c>
-      <c r="J46" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="B47">
-        <v>25</v>
-      </c>
-      <c r="C47">
-        <v>55</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E47">
-        <v>5</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H47" t="s">
-        <v>347</v>
-      </c>
-      <c r="I47" t="s">
-        <v>347</v>
-      </c>
-      <c r="J47" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="B48">
-        <v>35</v>
-      </c>
-      <c r="C48">
-        <v>80</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E48">
-        <v>5</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H48" t="s">
-        <v>347</v>
-      </c>
-      <c r="I48" t="s">
-        <v>347</v>
-      </c>
-      <c r="J48" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="B49">
-        <v>11</v>
-      </c>
-      <c r="C49">
-        <v>25</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H49" t="s">
-        <v>347</v>
-      </c>
-      <c r="I49" t="s">
-        <v>347</v>
-      </c>
-      <c r="J49" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="B50">
-        <v>30</v>
-      </c>
-      <c r="C50">
-        <v>65</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E50">
-        <v>5</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H50" t="s">
-        <v>347</v>
-      </c>
-      <c r="I50" t="s">
-        <v>347</v>
-      </c>
-      <c r="J50" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="B51">
-        <v>24</v>
-      </c>
-      <c r="C51">
-        <v>56</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E51">
-        <v>4</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H51" t="s">
-        <v>347</v>
-      </c>
-      <c r="I51" t="s">
-        <v>347</v>
-      </c>
-      <c r="J51" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="B52">
-        <v>10</v>
-      </c>
-      <c r="C52">
-        <v>24</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H52" t="s">
-        <v>347</v>
-      </c>
-      <c r="I52" t="s">
-        <v>347</v>
-      </c>
       <c r="J52" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
-        <v>435</v>
+      <c r="K52" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>386</v>
       </c>
       <c r="B53">
         <v>20</v>
       </c>
       <c r="C53">
-        <v>44</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>354</v>
+        <v>30</v>
+      </c>
+      <c r="D53" s="18">
+        <v>3</v>
       </c>
       <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
         <v>4</v>
       </c>
-      <c r="F53" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>346</v>
+      <c r="G53" s="19">
+        <v>0.1388888888888889</v>
       </c>
       <c r="H53" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="I53" t="s">
         <v>347</v>
@@ -9763,31 +9921,34 @@
       <c r="J53" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
-        <v>437</v>
+      <c r="K53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>447</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C54">
-        <v>20</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>354</v>
+        <v>30</v>
+      </c>
+      <c r="D54" s="18">
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>346</v>
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" s="19">
+        <v>0.21666666666666667</v>
       </c>
       <c r="H54" t="s">
-        <v>347</v>
+        <v>448</v>
       </c>
       <c r="I54" t="s">
         <v>347</v>
@@ -9795,191 +9956,209 @@
       <c r="J54" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
-        <v>439</v>
+      <c r="K54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>518</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>42</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>354</v>
+        <v>30</v>
+      </c>
+      <c r="D55" s="18">
+        <v>4</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
-      <c r="F55" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="G55" s="20" t="s">
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55" s="19">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="H55" t="s">
+        <v>380</v>
+      </c>
+      <c r="I55" t="s">
+        <v>347</v>
+      </c>
+      <c r="J55" t="s">
+        <v>378</v>
+      </c>
+      <c r="K55" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>460</v>
+      </c>
+      <c r="B56">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>32</v>
+      </c>
+      <c r="D56" s="18">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56" s="19">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="H56" t="s">
+        <v>380</v>
+      </c>
+      <c r="I56" t="s">
+        <v>347</v>
+      </c>
+      <c r="J56" t="s">
+        <v>378</v>
+      </c>
+      <c r="K56" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>501</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>32</v>
+      </c>
+      <c r="D57" s="18">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57" s="19">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="H57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I57" t="s">
+        <v>347</v>
+      </c>
+      <c r="J57" t="s">
+        <v>378</v>
+      </c>
+      <c r="K57" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>502</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>32</v>
+      </c>
+      <c r="D58" s="18">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58" s="19">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="H58" t="s">
+        <v>380</v>
+      </c>
+      <c r="I58" t="s">
+        <v>347</v>
+      </c>
+      <c r="J58" t="s">
+        <v>378</v>
+      </c>
+      <c r="K58" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>441</v>
+      </c>
+      <c r="B59">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>33</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="H59" t="s">
         <v>346</v>
       </c>
-      <c r="H55" t="s">
-        <v>347</v>
-      </c>
-      <c r="I55" t="s">
-        <v>347</v>
-      </c>
-      <c r="J55" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="B56">
-        <v>15</v>
-      </c>
-      <c r="C56">
+      <c r="I59" t="s">
+        <v>347</v>
+      </c>
+      <c r="J59" t="s">
+        <v>347</v>
+      </c>
+      <c r="K59" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>443</v>
+      </c>
+      <c r="B60">
+        <v>14</v>
+      </c>
+      <c r="C60">
         <v>33</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D60" s="18" t="s">
         <v>354</v>
-      </c>
-      <c r="E56">
-        <v>3</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H56" t="s">
-        <v>347</v>
-      </c>
-      <c r="I56" t="s">
-        <v>347</v>
-      </c>
-      <c r="J56" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="B57">
-        <v>14</v>
-      </c>
-      <c r="C57">
-        <v>33</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H57" t="s">
-        <v>347</v>
-      </c>
-      <c r="I57" t="s">
-        <v>347</v>
-      </c>
-      <c r="J57" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="B58">
-        <v>12</v>
-      </c>
-      <c r="C58">
-        <v>24</v>
-      </c>
-      <c r="D58" s="20">
-        <v>4</v>
-      </c>
-      <c r="E58">
-        <v>3</v>
-      </c>
-      <c r="F58" s="21">
-        <v>0.17500000000000002</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H58" t="s">
-        <v>347</v>
-      </c>
-      <c r="I58" t="s">
-        <v>378</v>
-      </c>
-      <c r="J58" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="B59">
-        <v>12</v>
-      </c>
-      <c r="C59">
-        <v>18</v>
-      </c>
-      <c r="D59" s="20">
-        <v>3</v>
-      </c>
-      <c r="E59">
-        <v>4</v>
-      </c>
-      <c r="F59" s="21">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="H59" t="s">
-        <v>378</v>
-      </c>
-      <c r="I59" t="s">
-        <v>347</v>
-      </c>
-      <c r="J59" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="B60">
-        <v>12</v>
-      </c>
-      <c r="C60">
-        <v>30</v>
-      </c>
-      <c r="D60" s="20">
-        <v>5</v>
       </c>
       <c r="E60">
         <v>3</v>
       </c>
-      <c r="F60" s="21">
-        <v>0.21666666666666667</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>448</v>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>444</v>
       </c>
       <c r="H60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I60" t="s">
         <v>347</v>
@@ -9987,361 +10166,397 @@
       <c r="J60" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
-        <v>462</v>
+      <c r="K60" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>343</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>12</v>
-      </c>
-      <c r="D61" s="20">
+        <v>35</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
         <v>4</v>
       </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61" s="21">
-        <v>0.17083333333333331</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>380</v>
+      <c r="G61" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="H61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I61" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="J61" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="19" t="s">
-        <v>450</v>
+        <v>347</v>
+      </c>
+      <c r="K61" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>483</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C62">
-        <v>40</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>344</v>
+        <v>35</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>349</v>
       </c>
       <c r="E62">
         <v>5</v>
       </c>
-      <c r="F62" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="G62" s="20" t="s">
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="H62" t="s">
         <v>346</v>
       </c>
-      <c r="H62" t="s">
-        <v>347</v>
-      </c>
       <c r="I62" t="s">
         <v>347</v>
       </c>
       <c r="J62" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
-        <v>452</v>
+      <c r="K62" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>402</v>
       </c>
       <c r="B63">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C63">
-        <v>26</v>
-      </c>
-      <c r="D63" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>349</v>
       </c>
       <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
         <v>4</v>
       </c>
-      <c r="F63" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="G63" s="20" t="s">
+      <c r="G63" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="H63" t="s">
         <v>346</v>
       </c>
-      <c r="H63" t="s">
-        <v>347</v>
-      </c>
       <c r="I63" t="s">
         <v>347</v>
       </c>
       <c r="J63" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
-        <v>453</v>
+      <c r="K63" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>410</v>
       </c>
       <c r="B64">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="C64">
-        <v>120</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>349</v>
+        <v>36</v>
+      </c>
+      <c r="D64" s="18">
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>10</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>346</v>
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64" s="19">
+        <v>0.17916666666666667</v>
       </c>
       <c r="H64" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="I64" t="s">
         <v>347</v>
       </c>
       <c r="J64" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
-        <v>455</v>
+        <v>378</v>
+      </c>
+      <c r="K64" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>411</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C65">
-        <v>20</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>344</v>
+        <v>36</v>
+      </c>
+      <c r="D65" s="18">
+        <v>4</v>
       </c>
       <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" s="19">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="H65" t="s">
+        <v>380</v>
+      </c>
+      <c r="I65" t="s">
+        <v>347</v>
+      </c>
+      <c r="J65" t="s">
+        <v>378</v>
+      </c>
+      <c r="K65" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>513</v>
+      </c>
+      <c r="B66">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>36</v>
+      </c>
+      <c r="D66" s="18">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66" s="19">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="H66" t="s">
+        <v>380</v>
+      </c>
+      <c r="I66" t="s">
+        <v>347</v>
+      </c>
+      <c r="J66" t="s">
+        <v>378</v>
+      </c>
+      <c r="K66" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>527</v>
+      </c>
+      <c r="B67">
+        <v>24</v>
+      </c>
+      <c r="C67">
+        <v>36</v>
+      </c>
+      <c r="D67" s="18">
         <v>3</v>
       </c>
-      <c r="F65" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="G65" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H65" t="s">
-        <v>347</v>
-      </c>
-      <c r="I65" t="s">
-        <v>347</v>
-      </c>
-      <c r="J65" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="B66">
-        <v>50</v>
-      </c>
-      <c r="C66">
-        <v>90</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E66">
-        <v>8</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H66" t="s">
-        <v>347</v>
-      </c>
-      <c r="I66" t="s">
-        <v>347</v>
-      </c>
-      <c r="J66" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="B67">
-        <v>60</v>
-      </c>
-      <c r="C67">
-        <v>120</v>
-      </c>
-      <c r="D67" s="20">
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67">
         <v>4</v>
       </c>
-      <c r="E67">
-        <v>8</v>
-      </c>
-      <c r="F67" s="20">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>380</v>
+      <c r="G67" s="19">
+        <v>0.14166666666666666</v>
       </c>
       <c r="H67" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="I67" t="s">
+        <v>347</v>
+      </c>
+      <c r="J67" t="s">
+        <v>347</v>
+      </c>
+      <c r="K67" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>532</v>
+      </c>
+      <c r="B68">
+        <v>24</v>
+      </c>
+      <c r="C68">
+        <v>36</v>
+      </c>
+      <c r="D68" s="18">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" s="19">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="H68" t="s">
+        <v>377</v>
+      </c>
+      <c r="I68" t="s">
         <v>378</v>
       </c>
-      <c r="J67" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="B68">
-        <v>55</v>
-      </c>
-      <c r="C68">
-        <v>105</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E68">
-        <v>8</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H68" t="s">
-        <v>347</v>
-      </c>
-      <c r="I68" t="s">
-        <v>347</v>
-      </c>
       <c r="J68" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="19" t="s">
-        <v>460</v>
+      <c r="K68" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>384</v>
       </c>
       <c r="B69">
         <v>16</v>
       </c>
       <c r="C69">
-        <v>32</v>
-      </c>
-      <c r="D69" s="20">
+        <v>38</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="H69" t="s">
+        <v>346</v>
+      </c>
+      <c r="I69" t="s">
+        <v>347</v>
+      </c>
+      <c r="J69" t="s">
+        <v>347</v>
+      </c>
+      <c r="K69" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>381</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>40</v>
+      </c>
+      <c r="D70" s="18">
         <v>4</v>
-      </c>
-      <c r="E69">
-        <v>4</v>
-      </c>
-      <c r="F69" s="21">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H69" t="s">
-        <v>347</v>
-      </c>
-      <c r="I69" t="s">
-        <v>378</v>
-      </c>
-      <c r="J69" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="B70">
-        <v>16</v>
-      </c>
-      <c r="C70">
-        <v>24</v>
-      </c>
-      <c r="D70" s="20">
-        <v>3</v>
       </c>
       <c r="E70">
         <v>5</v>
       </c>
-      <c r="F70" s="21">
-        <v>0.1361111111111111</v>
-      </c>
-      <c r="G70" s="20" t="s">
-        <v>377</v>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70" s="19">
+        <v>0.18055555555555555</v>
       </c>
       <c r="H70" t="s">
+        <v>380</v>
+      </c>
+      <c r="I70" t="s">
+        <v>347</v>
+      </c>
+      <c r="J70" t="s">
         <v>378</v>
       </c>
-      <c r="I70" t="s">
-        <v>347</v>
-      </c>
-      <c r="J70" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="19" t="s">
-        <v>379</v>
+      <c r="K70" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>450</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C71">
-        <v>24</v>
-      </c>
-      <c r="D71" s="20">
+        <v>40</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
         <v>4</v>
       </c>
-      <c r="E71">
-        <v>3</v>
-      </c>
-      <c r="F71" s="21">
-        <v>0.17500000000000002</v>
-      </c>
-      <c r="G71" s="20" t="s">
-        <v>380</v>
+      <c r="G71" s="18" t="s">
+        <v>451</v>
       </c>
       <c r="H71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I71" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="J71" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="K71" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>463</v>
       </c>
       <c r="B72">
@@ -10350,852 +10565,930 @@
       <c r="C72">
         <v>40</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D72" s="18" t="s">
         <v>344</v>
       </c>
       <c r="E72">
         <v>5</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="G72" s="20" t="s">
+      <c r="H72" t="s">
         <v>346</v>
       </c>
-      <c r="H72" t="s">
-        <v>347</v>
-      </c>
       <c r="I72" t="s">
         <v>347</v>
       </c>
       <c r="J72" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="19" t="s">
-        <v>464</v>
+      <c r="K72" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>474</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C73">
-        <v>26</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>349</v>
+        <v>40</v>
+      </c>
+      <c r="D73" s="18">
+        <v>4</v>
       </c>
       <c r="E73">
         <v>4</v>
       </c>
-      <c r="F73" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="G73" s="20" t="s">
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73" s="19">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="H73" t="s">
+        <v>380</v>
+      </c>
+      <c r="I73" t="s">
+        <v>347</v>
+      </c>
+      <c r="J73" t="s">
+        <v>378</v>
+      </c>
+      <c r="K73" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>476</v>
+      </c>
+      <c r="B74">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>40</v>
+      </c>
+      <c r="D74" s="18">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74" s="19">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="H74" t="s">
+        <v>380</v>
+      </c>
+      <c r="I74" t="s">
+        <v>347</v>
+      </c>
+      <c r="J74" t="s">
+        <v>378</v>
+      </c>
+      <c r="K74" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>491</v>
+      </c>
+      <c r="B75">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>40</v>
+      </c>
+      <c r="D75" s="18">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" s="19">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="H75" t="s">
+        <v>448</v>
+      </c>
+      <c r="I75" t="s">
+        <v>347</v>
+      </c>
+      <c r="J75" t="s">
+        <v>347</v>
+      </c>
+      <c r="K75" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>439</v>
+      </c>
+      <c r="B76">
+        <v>18</v>
+      </c>
+      <c r="C76">
+        <v>42</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="H76" t="s">
         <v>346</v>
       </c>
-      <c r="H73" t="s">
-        <v>347</v>
-      </c>
-      <c r="I73" t="s">
-        <v>347</v>
-      </c>
-      <c r="J73" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="B74">
-        <v>70</v>
-      </c>
-      <c r="C74">
-        <v>120</v>
-      </c>
-      <c r="D74" s="20" t="s">
+      <c r="I76" t="s">
+        <v>347</v>
+      </c>
+      <c r="J76" t="s">
+        <v>347</v>
+      </c>
+      <c r="K76" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>435</v>
+      </c>
+      <c r="B77">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>44</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="H77" t="s">
+        <v>346</v>
+      </c>
+      <c r="I77" t="s">
+        <v>347</v>
+      </c>
+      <c r="J77" t="s">
+        <v>347</v>
+      </c>
+      <c r="K77" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>389</v>
+      </c>
+      <c r="B78">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>45</v>
+      </c>
+      <c r="D78" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="E74">
-        <v>10</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="G74" s="20" t="s">
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="H78" t="s">
         <v>346</v>
       </c>
-      <c r="H74" t="s">
-        <v>347</v>
-      </c>
-      <c r="I74" t="s">
-        <v>347</v>
-      </c>
-      <c r="J74" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="B75">
-        <v>50</v>
-      </c>
-      <c r="C75">
-        <v>90</v>
-      </c>
-      <c r="D75" s="20" t="s">
+      <c r="I78" t="s">
+        <v>347</v>
+      </c>
+      <c r="J78" t="s">
+        <v>347</v>
+      </c>
+      <c r="K78" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>516</v>
+      </c>
+      <c r="B79">
+        <v>23</v>
+      </c>
+      <c r="C79">
+        <v>45</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="H79" t="s">
+        <v>346</v>
+      </c>
+      <c r="I79" t="s">
+        <v>347</v>
+      </c>
+      <c r="J79" t="s">
+        <v>347</v>
+      </c>
+      <c r="K79" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>360</v>
+      </c>
+      <c r="B80">
+        <v>28</v>
+      </c>
+      <c r="C80">
+        <v>48</v>
+      </c>
+      <c r="D80" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="E75">
-        <v>8</v>
-      </c>
-      <c r="F75" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="G75" s="20" t="s">
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="H80" t="s">
         <v>346</v>
       </c>
-      <c r="H75" t="s">
-        <v>347</v>
-      </c>
-      <c r="I75" t="s">
-        <v>347</v>
-      </c>
-      <c r="J75" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="B76">
-        <v>60</v>
-      </c>
-      <c r="C76">
-        <v>120</v>
-      </c>
-      <c r="D76" s="20">
+      <c r="I80" t="s">
+        <v>347</v>
+      </c>
+      <c r="J80" t="s">
+        <v>347</v>
+      </c>
+      <c r="K80" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>404</v>
+      </c>
+      <c r="B81">
+        <v>24</v>
+      </c>
+      <c r="C81">
+        <v>48</v>
+      </c>
+      <c r="D81" s="18">
         <v>4</v>
       </c>
-      <c r="E76">
-        <v>8</v>
-      </c>
-      <c r="F76" s="20">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="G76" s="20" t="s">
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81" s="19">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="H81" t="s">
         <v>380</v>
       </c>
-      <c r="H76" t="s">
-        <v>347</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="I81" t="s">
+        <v>347</v>
+      </c>
+      <c r="J81" t="s">
         <v>378</v>
       </c>
-      <c r="J76" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="B77">
-        <v>55</v>
-      </c>
-      <c r="C77">
-        <v>105</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E77">
-        <v>8</v>
-      </c>
-      <c r="F77" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="G77" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H77" t="s">
-        <v>347</v>
-      </c>
-      <c r="I77" t="s">
-        <v>347</v>
-      </c>
-      <c r="J77" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="B78">
-        <v>10</v>
-      </c>
-      <c r="C78">
-        <v>20</v>
-      </c>
-      <c r="D78" s="20">
-        <v>4</v>
-      </c>
-      <c r="E78">
-        <v>3</v>
-      </c>
-      <c r="F78" s="21">
-        <v>0.17361111111111113</v>
-      </c>
-      <c r="G78" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H78" t="s">
-        <v>347</v>
-      </c>
-      <c r="I78" t="s">
-        <v>378</v>
-      </c>
-      <c r="J78" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="19" t="s">
-        <v>470</v>
-      </c>
-      <c r="B79">
-        <v>7</v>
-      </c>
-      <c r="C79">
-        <v>15</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-      <c r="F79" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="G79" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H79" t="s">
-        <v>347</v>
-      </c>
-      <c r="I79" t="s">
-        <v>347</v>
-      </c>
-      <c r="J79" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="B80">
-        <v>15</v>
-      </c>
-      <c r="C80">
-        <v>25</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E80">
-        <v>4</v>
-      </c>
-      <c r="F80" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H80" t="s">
-        <v>347</v>
-      </c>
-      <c r="I80" t="s">
-        <v>347</v>
-      </c>
-      <c r="J80" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="B81">
-        <v>20</v>
-      </c>
-      <c r="C81">
-        <v>40</v>
-      </c>
-      <c r="D81" s="20">
-        <v>4</v>
-      </c>
-      <c r="E81">
-        <v>4</v>
-      </c>
-      <c r="F81" s="21">
-        <v>0.18055555555555555</v>
-      </c>
-      <c r="G81" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H81" t="s">
-        <v>347</v>
-      </c>
-      <c r="I81" t="s">
-        <v>378</v>
-      </c>
-      <c r="J81" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="19" t="s">
-        <v>475</v>
+      <c r="K81" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>486</v>
       </c>
       <c r="B82">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C82">
-        <v>50</v>
-      </c>
-      <c r="D82" s="20">
+        <v>48</v>
+      </c>
+      <c r="D82" s="18">
         <v>4</v>
       </c>
       <c r="E82">
         <v>5</v>
       </c>
-      <c r="F82" s="21">
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="G82" s="19">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="H82" t="s">
+        <v>380</v>
+      </c>
+      <c r="I82" t="s">
+        <v>347</v>
+      </c>
+      <c r="J82" t="s">
+        <v>378</v>
+      </c>
+      <c r="K82" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>475</v>
+      </c>
+      <c r="B83">
+        <v>25</v>
+      </c>
+      <c r="C83">
+        <v>50</v>
+      </c>
+      <c r="D83" s="18">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83" s="19">
         <v>0.18402777777777779</v>
       </c>
-      <c r="G82" s="20" t="s">
+      <c r="H83" t="s">
         <v>380</v>
       </c>
-      <c r="H82" t="s">
-        <v>347</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="I83" t="s">
+        <v>347</v>
+      </c>
+      <c r="J83" t="s">
         <v>378</v>
       </c>
-      <c r="J82" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="B83">
-        <v>20</v>
-      </c>
-      <c r="C83">
-        <v>40</v>
-      </c>
-      <c r="D83" s="20">
+      <c r="K83" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>478</v>
+      </c>
+      <c r="B84">
+        <v>25</v>
+      </c>
+      <c r="C84">
+        <v>50</v>
+      </c>
+      <c r="D84" s="18">
         <v>4</v>
       </c>
-      <c r="E83">
+      <c r="E84">
         <v>4</v>
       </c>
-      <c r="F83" s="21">
-        <v>0.18055555555555555</v>
-      </c>
-      <c r="G83" s="20" t="s">
+      <c r="F84">
+        <v>7</v>
+      </c>
+      <c r="G84" s="19">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="H84" t="s">
         <v>380</v>
       </c>
-      <c r="H83" t="s">
-        <v>347</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="I84" t="s">
+        <v>347</v>
+      </c>
+      <c r="J84" t="s">
         <v>378</v>
       </c>
-      <c r="J83" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="B84">
+      <c r="K84" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>399</v>
+      </c>
+      <c r="B85">
         <v>30</v>
       </c>
-      <c r="C84">
+      <c r="C85">
+        <v>55</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="H85" t="s">
+        <v>346</v>
+      </c>
+      <c r="I85" t="s">
+        <v>347</v>
+      </c>
+      <c r="J85" t="s">
+        <v>347</v>
+      </c>
+      <c r="K85" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>423</v>
+      </c>
+      <c r="B86">
+        <v>25</v>
+      </c>
+      <c r="C86">
+        <v>55</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="H86" t="s">
+        <v>346</v>
+      </c>
+      <c r="I86" t="s">
+        <v>347</v>
+      </c>
+      <c r="J86" t="s">
+        <v>347</v>
+      </c>
+      <c r="K86" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>431</v>
+      </c>
+      <c r="B87">
+        <v>24</v>
+      </c>
+      <c r="C87">
+        <v>56</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="H87" t="s">
+        <v>346</v>
+      </c>
+      <c r="I87" t="s">
+        <v>347</v>
+      </c>
+      <c r="J87" t="s">
+        <v>347</v>
+      </c>
+      <c r="K87" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>370</v>
+      </c>
+      <c r="B88">
+        <v>32</v>
+      </c>
+      <c r="C88">
         <v>60</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D88" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="F88">
         <v>4</v>
       </c>
-      <c r="E84">
+      <c r="G88" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="H88" t="s">
+        <v>346</v>
+      </c>
+      <c r="I88" t="s">
+        <v>347</v>
+      </c>
+      <c r="J88" t="s">
+        <v>347</v>
+      </c>
+      <c r="K88" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>391</v>
+      </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>60</v>
+      </c>
+      <c r="D89" s="18">
+        <v>4</v>
+      </c>
+      <c r="E89">
         <v>5</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89" s="19">
         <v>0.1875</v>
       </c>
-      <c r="G84" s="20" t="s">
+      <c r="H89" t="s">
         <v>380</v>
       </c>
-      <c r="H84" t="s">
-        <v>347</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="I89" t="s">
+        <v>347</v>
+      </c>
+      <c r="J89" t="s">
         <v>378</v>
       </c>
-      <c r="J84" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="B85">
-        <v>25</v>
-      </c>
-      <c r="C85">
-        <v>50</v>
-      </c>
-      <c r="D85" s="20">
-        <v>4</v>
-      </c>
-      <c r="E85">
-        <v>4</v>
-      </c>
-      <c r="F85" s="21">
-        <v>0.18402777777777779</v>
-      </c>
-      <c r="G85" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H85" t="s">
-        <v>347</v>
-      </c>
-      <c r="I85" t="s">
-        <v>378</v>
-      </c>
-      <c r="J85" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="B86">
-        <v>10</v>
-      </c>
-      <c r="C86">
-        <v>15</v>
-      </c>
-      <c r="D86" s="20">
-        <v>3</v>
-      </c>
-      <c r="E86">
-        <v>3</v>
-      </c>
-      <c r="F86" s="21">
-        <v>0.13194444444444445</v>
-      </c>
-      <c r="G86" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="H86" t="s">
-        <v>347</v>
-      </c>
-      <c r="I86" t="s">
-        <v>347</v>
-      </c>
-      <c r="J86" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="B87">
-        <v>6</v>
-      </c>
-      <c r="C87">
-        <v>10</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="E87">
-        <v>2</v>
-      </c>
-      <c r="F87" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="G87" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H87" t="s">
-        <v>347</v>
-      </c>
-      <c r="I87" t="s">
-        <v>347</v>
-      </c>
-      <c r="J87" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="B88">
-        <v>20</v>
-      </c>
-      <c r="C88">
-        <v>35</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E88">
-        <v>5</v>
-      </c>
-      <c r="F88" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="G88" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H88" t="s">
-        <v>347</v>
-      </c>
-      <c r="I88" t="s">
-        <v>347</v>
-      </c>
-      <c r="J88" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="B89">
+      <c r="K89" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>394</v>
+      </c>
+      <c r="B90">
+        <v>30</v>
+      </c>
+      <c r="C90">
         <v>60</v>
       </c>
-      <c r="C89">
-        <v>120</v>
-      </c>
-      <c r="D89" s="20">
-        <v>4</v>
-      </c>
-      <c r="E89">
-        <v>8</v>
-      </c>
-      <c r="F89" s="20">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="G89" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H89" t="s">
-        <v>347</v>
-      </c>
-      <c r="I89" t="s">
-        <v>378</v>
-      </c>
-      <c r="J89" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="19" t="s">
-        <v>486</v>
-      </c>
-      <c r="B90">
-        <v>24</v>
-      </c>
-      <c r="C90">
-        <v>48</v>
-      </c>
-      <c r="D90" s="20">
+      <c r="D90" s="18">
         <v>4</v>
       </c>
       <c r="E90">
         <v>5</v>
       </c>
-      <c r="F90" s="21">
-        <v>0.18333333333333335</v>
-      </c>
-      <c r="G90" s="20" t="s">
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90" s="19">
+        <v>0.1875</v>
+      </c>
+      <c r="H90" t="s">
         <v>380</v>
       </c>
-      <c r="H90" t="s">
-        <v>347</v>
-      </c>
       <c r="I90" t="s">
+        <v>347</v>
+      </c>
+      <c r="J90" t="s">
         <v>378</v>
       </c>
-      <c r="J90" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="19" t="s">
-        <v>487</v>
+      <c r="K90" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>449</v>
       </c>
       <c r="B91">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C91">
         <v>60</v>
       </c>
-      <c r="D91" s="20">
+      <c r="D91" s="18">
+        <v>4</v>
+      </c>
+      <c r="E91">
         <v>5</v>
       </c>
-      <c r="E91">
+      <c r="F91">
+        <v>6</v>
+      </c>
+      <c r="G91" s="19">
+        <v>0.1875</v>
+      </c>
+      <c r="H91" t="s">
+        <v>380</v>
+      </c>
+      <c r="I91" t="s">
+        <v>347</v>
+      </c>
+      <c r="J91" t="s">
+        <v>378</v>
+      </c>
+      <c r="K91" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>477</v>
+      </c>
+      <c r="B92">
+        <v>30</v>
+      </c>
+      <c r="C92">
+        <v>60</v>
+      </c>
+      <c r="D92" s="18">
         <v>4</v>
       </c>
-      <c r="F91" s="21">
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>6</v>
+      </c>
+      <c r="G92" s="19">
+        <v>0.1875</v>
+      </c>
+      <c r="H92" t="s">
+        <v>380</v>
+      </c>
+      <c r="I92" t="s">
+        <v>347</v>
+      </c>
+      <c r="J92" t="s">
+        <v>378</v>
+      </c>
+      <c r="K92" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>487</v>
+      </c>
+      <c r="B93">
+        <v>24</v>
+      </c>
+      <c r="C93">
+        <v>60</v>
+      </c>
+      <c r="D93" s="18">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>8</v>
+      </c>
+      <c r="G93" s="19">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G91" s="20" t="s">
+      <c r="H93" t="s">
         <v>448</v>
       </c>
-      <c r="H91" t="s">
-        <v>347</v>
-      </c>
-      <c r="I91" t="s">
-        <v>347</v>
-      </c>
-      <c r="J91" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="B92">
+      <c r="I93" t="s">
+        <v>347</v>
+      </c>
+      <c r="J93" t="s">
+        <v>347</v>
+      </c>
+      <c r="K93" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>429</v>
+      </c>
+      <c r="B94">
+        <v>30</v>
+      </c>
+      <c r="C94">
+        <v>65</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94">
         <v>8</v>
       </c>
-      <c r="C92">
-        <v>18</v>
-      </c>
-      <c r="D92" s="20" t="s">
+      <c r="G94" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="H94" t="s">
+        <v>346</v>
+      </c>
+      <c r="I94" t="s">
+        <v>347</v>
+      </c>
+      <c r="J94" t="s">
+        <v>347</v>
+      </c>
+      <c r="K94" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>393</v>
+      </c>
+      <c r="B95">
+        <v>35</v>
+      </c>
+      <c r="C95">
+        <v>70</v>
+      </c>
+      <c r="D95" s="18">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+      <c r="F95">
+        <v>7</v>
+      </c>
+      <c r="G95" s="19">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="H95" t="s">
+        <v>380</v>
+      </c>
+      <c r="I95" t="s">
+        <v>347</v>
+      </c>
+      <c r="J95" t="s">
+        <v>378</v>
+      </c>
+      <c r="K95" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>396</v>
+      </c>
+      <c r="B96">
+        <v>35</v>
+      </c>
+      <c r="C96">
+        <v>70</v>
+      </c>
+      <c r="D96" s="18">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>7</v>
+      </c>
+      <c r="G96" s="19">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="H96" t="s">
+        <v>380</v>
+      </c>
+      <c r="I96" t="s">
+        <v>347</v>
+      </c>
+      <c r="J96" t="s">
+        <v>378</v>
+      </c>
+      <c r="K96" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>419</v>
+      </c>
+      <c r="B97">
+        <v>30</v>
+      </c>
+      <c r="C97">
+        <v>70</v>
+      </c>
+      <c r="D97" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="E92">
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>6</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="H97" t="s">
+        <v>346</v>
+      </c>
+      <c r="I97" t="s">
+        <v>347</v>
+      </c>
+      <c r="J97" t="s">
+        <v>347</v>
+      </c>
+      <c r="K97" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>528</v>
+      </c>
+      <c r="B98">
+        <v>48</v>
+      </c>
+      <c r="C98">
+        <v>72</v>
+      </c>
+      <c r="D98" s="18">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>9</v>
+      </c>
+      <c r="F98">
         <v>2</v>
       </c>
-      <c r="F92" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="G92" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H92" t="s">
-        <v>347</v>
-      </c>
-      <c r="I92" t="s">
-        <v>347</v>
-      </c>
-      <c r="J92" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="B93">
-        <v>60</v>
-      </c>
-      <c r="C93">
-        <v>150</v>
-      </c>
-      <c r="D93" s="20">
-        <v>5</v>
-      </c>
-      <c r="E93">
-        <v>7</v>
-      </c>
-      <c r="F93" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="G93" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="H93" t="s">
-        <v>347</v>
-      </c>
-      <c r="I93" t="s">
-        <v>347</v>
-      </c>
-      <c r="J93" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="B94">
-        <v>16</v>
-      </c>
-      <c r="C94">
-        <v>40</v>
-      </c>
-      <c r="D94" s="20">
-        <v>5</v>
-      </c>
-      <c r="E94">
-        <v>3</v>
-      </c>
-      <c r="F94" s="21">
-        <v>0.21944444444444444</v>
-      </c>
-      <c r="G94" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="H94" t="s">
-        <v>347</v>
-      </c>
-      <c r="I94" t="s">
-        <v>347</v>
-      </c>
-      <c r="J94" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="B95">
-        <v>10</v>
-      </c>
-      <c r="C95">
-        <v>22</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E95">
-        <v>3</v>
-      </c>
-      <c r="F95" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="G95" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H95" t="s">
-        <v>347</v>
-      </c>
-      <c r="I95" t="s">
-        <v>347</v>
-      </c>
-      <c r="J95" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="B96">
-        <v>12</v>
-      </c>
-      <c r="C96">
-        <v>28</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E96">
-        <v>3</v>
-      </c>
-      <c r="F96" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="G96" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H96" t="s">
-        <v>347</v>
-      </c>
-      <c r="I96" t="s">
-        <v>347</v>
-      </c>
-      <c r="J96" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="B97">
-        <v>12</v>
-      </c>
-      <c r="C97">
-        <v>24</v>
-      </c>
-      <c r="D97" s="20">
-        <v>4</v>
-      </c>
-      <c r="E97">
-        <v>3</v>
-      </c>
-      <c r="F97" s="21">
-        <v>0.17500000000000002</v>
-      </c>
-      <c r="G97" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H97" t="s">
-        <v>347</v>
-      </c>
-      <c r="I97" t="s">
-        <v>378</v>
-      </c>
-      <c r="J97" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="B98">
-        <v>8</v>
-      </c>
-      <c r="C98">
-        <v>16</v>
-      </c>
-      <c r="D98" s="20">
-        <v>4</v>
-      </c>
-      <c r="E98">
-        <v>2</v>
-      </c>
-      <c r="F98" s="21">
-        <v>0.17222222222222225</v>
-      </c>
-      <c r="G98" s="20" t="s">
-        <v>380</v>
+      <c r="G98" s="19">
+        <v>0.15833333333333333</v>
       </c>
       <c r="H98" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="I98" t="s">
         <v>378</v>
@@ -11203,554 +11496,608 @@
       <c r="J98" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="19" t="s">
-        <v>499</v>
+      <c r="K98" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>524</v>
       </c>
       <c r="B99">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C99">
-        <v>20</v>
-      </c>
-      <c r="D99" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99" s="18" t="s">
         <v>349</v>
       </c>
       <c r="E99">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <v>6</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="H99" t="s">
+        <v>346</v>
+      </c>
+      <c r="I99" t="s">
+        <v>347</v>
+      </c>
+      <c r="J99" t="s">
+        <v>347</v>
+      </c>
+      <c r="K99" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>392</v>
+      </c>
+      <c r="B100">
+        <v>40</v>
+      </c>
+      <c r="C100">
+        <v>80</v>
+      </c>
+      <c r="D100" s="18">
         <v>4</v>
       </c>
-      <c r="F99" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="G99" s="20" t="s">
+      <c r="E100">
+        <v>6</v>
+      </c>
+      <c r="F100">
+        <v>6</v>
+      </c>
+      <c r="G100" s="19">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="H100" t="s">
+        <v>380</v>
+      </c>
+      <c r="I100" t="s">
+        <v>347</v>
+      </c>
+      <c r="J100" t="s">
+        <v>378</v>
+      </c>
+      <c r="K100" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>395</v>
+      </c>
+      <c r="B101">
+        <v>40</v>
+      </c>
+      <c r="C101">
+        <v>80</v>
+      </c>
+      <c r="D101" s="18">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>6</v>
+      </c>
+      <c r="F101">
+        <v>6</v>
+      </c>
+      <c r="G101" s="19">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="H101" t="s">
+        <v>380</v>
+      </c>
+      <c r="I101" t="s">
+        <v>347</v>
+      </c>
+      <c r="J101" t="s">
+        <v>378</v>
+      </c>
+      <c r="K101" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>425</v>
+      </c>
+      <c r="B102">
+        <v>35</v>
+      </c>
+      <c r="C102">
+        <v>80</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E102">
+        <v>5</v>
+      </c>
+      <c r="F102">
+        <v>8</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="H102" t="s">
         <v>346</v>
       </c>
-      <c r="H99" t="s">
-        <v>347</v>
-      </c>
-      <c r="I99" t="s">
-        <v>347</v>
-      </c>
-      <c r="J99" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="B100">
-        <v>16</v>
-      </c>
-      <c r="C100">
-        <v>32</v>
-      </c>
-      <c r="D100" s="20">
+      <c r="I102" t="s">
+        <v>347</v>
+      </c>
+      <c r="J102" t="s">
+        <v>347</v>
+      </c>
+      <c r="K102" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>414</v>
+      </c>
+      <c r="B103">
+        <v>50</v>
+      </c>
+      <c r="C103">
+        <v>90</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E103">
+        <v>8</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="H103" t="s">
+        <v>346</v>
+      </c>
+      <c r="I103" t="s">
+        <v>347</v>
+      </c>
+      <c r="J103" t="s">
+        <v>347</v>
+      </c>
+      <c r="K103" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>421</v>
+      </c>
+      <c r="B104">
+        <v>40</v>
+      </c>
+      <c r="C104">
+        <v>90</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E104">
+        <v>6</v>
+      </c>
+      <c r="F104">
+        <v>6</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="H104" t="s">
+        <v>346</v>
+      </c>
+      <c r="I104" t="s">
+        <v>347</v>
+      </c>
+      <c r="J104" t="s">
+        <v>347</v>
+      </c>
+      <c r="K104" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>457</v>
+      </c>
+      <c r="B105">
+        <v>50</v>
+      </c>
+      <c r="C105">
+        <v>90</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E105">
+        <v>8</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="H105" t="s">
+        <v>346</v>
+      </c>
+      <c r="I105" t="s">
+        <v>347</v>
+      </c>
+      <c r="J105" t="s">
+        <v>347</v>
+      </c>
+      <c r="K105" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>466</v>
+      </c>
+      <c r="B106">
+        <v>50</v>
+      </c>
+      <c r="C106">
+        <v>90</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E106">
+        <v>8</v>
+      </c>
+      <c r="F106">
         <v>4</v>
       </c>
-      <c r="E100">
+      <c r="G106" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="H106" t="s">
+        <v>346</v>
+      </c>
+      <c r="I106" t="s">
+        <v>347</v>
+      </c>
+      <c r="J106" t="s">
+        <v>347</v>
+      </c>
+      <c r="K106" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>529</v>
+      </c>
+      <c r="B107">
+        <v>60</v>
+      </c>
+      <c r="C107">
+        <v>90</v>
+      </c>
+      <c r="D107" s="18">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="F107">
+        <v>6</v>
+      </c>
+      <c r="G107" s="18">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H107" t="s">
+        <v>377</v>
+      </c>
+      <c r="I107" t="s">
+        <v>347</v>
+      </c>
+      <c r="J107" t="s">
+        <v>347</v>
+      </c>
+      <c r="K107" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>530</v>
+      </c>
+      <c r="B108">
+        <v>60</v>
+      </c>
+      <c r="C108">
+        <v>90</v>
+      </c>
+      <c r="D108" s="18">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <v>9</v>
+      </c>
+      <c r="F108">
+        <v>6</v>
+      </c>
+      <c r="G108" s="18">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H108" t="s">
+        <v>377</v>
+      </c>
+      <c r="I108" t="s">
+        <v>347</v>
+      </c>
+      <c r="J108" t="s">
+        <v>347</v>
+      </c>
+      <c r="K108" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>362</v>
+      </c>
+      <c r="B109">
+        <v>65</v>
+      </c>
+      <c r="C109">
+        <v>105</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E109">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="H109" t="s">
+        <v>346</v>
+      </c>
+      <c r="I109" t="s">
+        <v>347</v>
+      </c>
+      <c r="J109" t="s">
+        <v>347</v>
+      </c>
+      <c r="K109" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>372</v>
+      </c>
+      <c r="B110">
+        <v>55</v>
+      </c>
+      <c r="C110">
+        <v>105</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E110">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="H110" t="s">
+        <v>346</v>
+      </c>
+      <c r="I110" t="s">
+        <v>347</v>
+      </c>
+      <c r="J110" t="s">
+        <v>347</v>
+      </c>
+      <c r="K110" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>383</v>
+      </c>
+      <c r="B111">
+        <v>55</v>
+      </c>
+      <c r="C111">
+        <v>105</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E111">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>2</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="H111" t="s">
+        <v>346</v>
+      </c>
+      <c r="I111" t="s">
+        <v>347</v>
+      </c>
+      <c r="J111" t="s">
+        <v>347</v>
+      </c>
+      <c r="K111" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>459</v>
+      </c>
+      <c r="B112">
+        <v>55</v>
+      </c>
+      <c r="C112">
+        <v>105</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E112">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>2</v>
+      </c>
+      <c r="G112" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="H112" t="s">
+        <v>346</v>
+      </c>
+      <c r="I112" t="s">
+        <v>347</v>
+      </c>
+      <c r="J112" t="s">
+        <v>347</v>
+      </c>
+      <c r="K112" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>468</v>
+      </c>
+      <c r="B113">
+        <v>55</v>
+      </c>
+      <c r="C113">
+        <v>105</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E113">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
+        <v>2</v>
+      </c>
+      <c r="G113" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="H113" t="s">
+        <v>346</v>
+      </c>
+      <c r="I113" t="s">
+        <v>347</v>
+      </c>
+      <c r="J113" t="s">
+        <v>347</v>
+      </c>
+      <c r="K113" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>416</v>
+      </c>
+      <c r="B114">
+        <v>60</v>
+      </c>
+      <c r="C114">
+        <v>120</v>
+      </c>
+      <c r="D114" s="18">
         <v>4</v>
       </c>
-      <c r="F100" s="21">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="G100" s="20" t="s">
+      <c r="E114">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>2</v>
+      </c>
+      <c r="G114" s="18">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H114" t="s">
         <v>380</v>
       </c>
-      <c r="H100" t="s">
-        <v>347</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="I114" t="s">
+        <v>347</v>
+      </c>
+      <c r="J114" t="s">
         <v>378</v>
       </c>
-      <c r="J100" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="B101">
-        <v>16</v>
-      </c>
-      <c r="C101">
-        <v>32</v>
-      </c>
-      <c r="D101" s="20">
-        <v>4</v>
-      </c>
-      <c r="E101">
-        <v>4</v>
-      </c>
-      <c r="F101" s="21">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="G101" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H101" t="s">
-        <v>347</v>
-      </c>
-      <c r="I101" t="s">
-        <v>378</v>
-      </c>
-      <c r="J101" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="B102">
-        <v>5</v>
-      </c>
-      <c r="C102">
-        <v>8</v>
-      </c>
-      <c r="D102" s="20" t="s">
+      <c r="K114" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>453</v>
+      </c>
+      <c r="B115">
+        <v>70</v>
+      </c>
+      <c r="C115">
+        <v>120</v>
+      </c>
+      <c r="D115" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="E102">
+      <c r="E115">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
         <v>2</v>
       </c>
-      <c r="F102" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="G102" s="20" t="s">
+      <c r="G115" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="H115" t="s">
         <v>346</v>
       </c>
-      <c r="H102" t="s">
-        <v>347</v>
-      </c>
-      <c r="I102" t="s">
-        <v>347</v>
-      </c>
-      <c r="J102" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="B103">
-        <v>10</v>
-      </c>
-      <c r="C103">
-        <v>16</v>
-      </c>
-      <c r="D103" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="E103">
-        <v>4</v>
-      </c>
-      <c r="F103" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="G103" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H103" t="s">
-        <v>378</v>
-      </c>
-      <c r="I103" t="s">
-        <v>378</v>
-      </c>
-      <c r="J103" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="19" t="s">
-        <v>508</v>
-      </c>
-      <c r="B104">
-        <v>4</v>
-      </c>
-      <c r="C104">
-        <v>6</v>
-      </c>
-      <c r="D104" s="20">
-        <v>3</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-      <c r="F104" s="21">
-        <v>0.1277777777777778</v>
-      </c>
-      <c r="G104" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="H104" t="s">
-        <v>347</v>
-      </c>
-      <c r="I104" t="s">
-        <v>347</v>
-      </c>
-      <c r="J104" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="19" t="s">
-        <v>509</v>
-      </c>
-      <c r="B105">
-        <v>5</v>
-      </c>
-      <c r="C105">
-        <v>9</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E105">
-        <v>2</v>
-      </c>
-      <c r="F105" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="G105" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H105" t="s">
-        <v>347</v>
-      </c>
-      <c r="I105" t="s">
-        <v>347</v>
-      </c>
-      <c r="J105" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="B106">
-        <v>9</v>
-      </c>
-      <c r="C106">
-        <v>15</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E106">
-        <v>3</v>
-      </c>
-      <c r="F106" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="G106" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H106" t="s">
-        <v>347</v>
-      </c>
-      <c r="I106" t="s">
-        <v>347</v>
-      </c>
-      <c r="J106" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="B107">
-        <v>18</v>
-      </c>
-      <c r="C107">
-        <v>36</v>
-      </c>
-      <c r="D107" s="20">
-        <v>4</v>
-      </c>
-      <c r="E107">
-        <v>4</v>
-      </c>
-      <c r="F107" s="21">
-        <v>0.17916666666666667</v>
-      </c>
-      <c r="G107" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H107" t="s">
-        <v>347</v>
-      </c>
-      <c r="I107" t="s">
-        <v>378</v>
-      </c>
-      <c r="J107" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="B108">
-        <v>30</v>
-      </c>
-      <c r="C108">
-        <v>60</v>
-      </c>
-      <c r="D108" s="20">
-        <v>4</v>
-      </c>
-      <c r="E108">
-        <v>5</v>
-      </c>
-      <c r="F108" s="21">
-        <v>0.1875</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H108" t="s">
-        <v>347</v>
-      </c>
-      <c r="I108" t="s">
-        <v>378</v>
-      </c>
-      <c r="J108" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="B109">
-        <v>6</v>
-      </c>
-      <c r="C109">
-        <v>9</v>
-      </c>
-      <c r="D109" s="20">
-        <v>3</v>
-      </c>
-      <c r="E109">
-        <v>2</v>
-      </c>
-      <c r="F109" s="21">
-        <v>0.12916666666666668</v>
-      </c>
-      <c r="G109" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="H109" t="s">
-        <v>347</v>
-      </c>
-      <c r="I109" t="s">
-        <v>347</v>
-      </c>
-      <c r="J109" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="B110">
-        <v>23</v>
-      </c>
-      <c r="C110">
-        <v>45</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="E110">
-        <v>5</v>
-      </c>
-      <c r="F110" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="G110" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H110" t="s">
-        <v>347</v>
-      </c>
-      <c r="I110" t="s">
-        <v>347</v>
-      </c>
-      <c r="J110" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="B111">
-        <v>15</v>
-      </c>
-      <c r="C111">
-        <v>30</v>
-      </c>
-      <c r="D111" s="20">
-        <v>4</v>
-      </c>
-      <c r="E111">
-        <v>4</v>
-      </c>
-      <c r="F111" s="21">
-        <v>0.17708333333333334</v>
-      </c>
-      <c r="G111" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H111" t="s">
-        <v>347</v>
-      </c>
-      <c r="I111" t="s">
-        <v>378</v>
-      </c>
-      <c r="J111" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="B112">
-        <v>9</v>
-      </c>
-      <c r="C112">
-        <v>21</v>
-      </c>
-      <c r="D112" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="E112">
-        <v>2</v>
-      </c>
-      <c r="F112" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="G112" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H112" t="s">
-        <v>347</v>
-      </c>
-      <c r="I112" t="s">
-        <v>347</v>
-      </c>
-      <c r="J112" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="B113">
-        <v>75</v>
-      </c>
-      <c r="C113">
-        <v>135</v>
-      </c>
-      <c r="D113" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E113">
-        <v>10</v>
-      </c>
-      <c r="F113" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="G113" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H113" t="s">
-        <v>347</v>
-      </c>
-      <c r="I113" t="s">
-        <v>347</v>
-      </c>
-      <c r="J113" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="B114">
-        <v>9</v>
-      </c>
-      <c r="C114">
-        <v>15</v>
-      </c>
-      <c r="D114" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E114">
-        <v>3</v>
-      </c>
-      <c r="F114" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="G114" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H114" t="s">
-        <v>347</v>
-      </c>
-      <c r="I114" t="s">
-        <v>347</v>
-      </c>
-      <c r="J114" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="19" t="s">
-        <v>524</v>
-      </c>
-      <c r="B115">
-        <v>45</v>
-      </c>
-      <c r="C115">
-        <v>75</v>
-      </c>
-      <c r="D115" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="E115">
-        <v>8</v>
-      </c>
-      <c r="F115" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="G115" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H115" t="s">
-        <v>347</v>
-      </c>
       <c r="I115" t="s">
         <v>347</v>
       </c>
       <c r="J115" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" s="19" t="s">
-        <v>526</v>
+      <c r="K115" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>458</v>
       </c>
       <c r="B116">
         <v>60</v>
@@ -11758,52 +12105,55 @@
       <c r="C116">
         <v>120</v>
       </c>
-      <c r="D116" s="20">
+      <c r="D116" s="18">
         <v>4</v>
       </c>
       <c r="E116">
         <v>8</v>
       </c>
-      <c r="F116" s="20">
+      <c r="F116" t="s">
+        <v>2</v>
+      </c>
+      <c r="G116" s="18">
         <v>0.20833333333333334</v>
       </c>
-      <c r="G116" s="20" t="s">
+      <c r="H116" t="s">
         <v>380</v>
       </c>
-      <c r="H116" t="s">
-        <v>347</v>
-      </c>
       <c r="I116" t="s">
+        <v>347</v>
+      </c>
+      <c r="J116" t="s">
         <v>378</v>
       </c>
-      <c r="J116" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="19" t="s">
-        <v>527</v>
+      <c r="K116" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>465</v>
       </c>
       <c r="B117">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C117">
-        <v>36</v>
-      </c>
-      <c r="D117" s="20">
-        <v>3</v>
+        <v>120</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>349</v>
       </c>
       <c r="E117">
-        <v>6</v>
-      </c>
-      <c r="F117" s="21">
-        <v>0.14166666666666666</v>
-      </c>
-      <c r="G117" s="20" t="s">
-        <v>377</v>
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>2</v>
+      </c>
+      <c r="G117" s="18" t="s">
+        <v>454</v>
       </c>
       <c r="H117" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I117" t="s">
         <v>347</v>
@@ -11811,225 +12161,246 @@
       <c r="J117" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="19" t="s">
-        <v>528</v>
+      <c r="K117" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>467</v>
       </c>
       <c r="B118">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C118">
-        <v>72</v>
-      </c>
-      <c r="D118" s="20">
-        <v>3</v>
+        <v>120</v>
+      </c>
+      <c r="D118" s="18">
+        <v>4</v>
       </c>
       <c r="E118">
-        <v>9</v>
-      </c>
-      <c r="F118" s="21">
-        <v>0.15833333333333333</v>
-      </c>
-      <c r="G118" s="20" t="s">
-        <v>377</v>
+        <v>8</v>
+      </c>
+      <c r="F118" t="s">
+        <v>2</v>
+      </c>
+      <c r="G118" s="18">
+        <v>0.20833333333333334</v>
       </c>
       <c r="H118" t="s">
+        <v>380</v>
+      </c>
+      <c r="I118" t="s">
+        <v>347</v>
+      </c>
+      <c r="J118" t="s">
         <v>378</v>
       </c>
-      <c r="I118" t="s">
-        <v>347</v>
-      </c>
-      <c r="J118" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="19" t="s">
-        <v>529</v>
+      <c r="K118" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>485</v>
       </c>
       <c r="B119">
         <v>60</v>
       </c>
       <c r="C119">
-        <v>90</v>
-      </c>
-      <c r="D119" s="20">
-        <v>3</v>
+        <v>120</v>
+      </c>
+      <c r="D119" s="18">
+        <v>4</v>
       </c>
       <c r="E119">
-        <v>10</v>
-      </c>
-      <c r="F119" s="20">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G119" s="20" t="s">
-        <v>377</v>
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>2</v>
+      </c>
+      <c r="G119" s="18">
+        <v>0.20833333333333334</v>
       </c>
       <c r="H119" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="I119" t="s">
         <v>347</v>
       </c>
       <c r="J119" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="19" t="s">
-        <v>530</v>
+        <v>378</v>
+      </c>
+      <c r="K119" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>526</v>
       </c>
       <c r="B120">
         <v>60</v>
       </c>
       <c r="C120">
-        <v>90</v>
-      </c>
-      <c r="D120" s="20">
+        <v>120</v>
+      </c>
+      <c r="D120" s="18">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>8</v>
+      </c>
+      <c r="F120" t="s">
+        <v>2</v>
+      </c>
+      <c r="G120" s="18">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H120" t="s">
+        <v>380</v>
+      </c>
+      <c r="I120" t="s">
+        <v>347</v>
+      </c>
+      <c r="J120" t="s">
+        <v>378</v>
+      </c>
+      <c r="K120" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>521</v>
+      </c>
+      <c r="B121">
+        <v>75</v>
+      </c>
+      <c r="C121">
+        <v>135</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E121">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s">
+        <v>2</v>
+      </c>
+      <c r="G121" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="H121" t="s">
+        <v>346</v>
+      </c>
+      <c r="I121" t="s">
+        <v>347</v>
+      </c>
+      <c r="J121" t="s">
+        <v>347</v>
+      </c>
+      <c r="K121" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>490</v>
+      </c>
+      <c r="B122">
+        <v>60</v>
+      </c>
+      <c r="C122">
+        <v>150</v>
+      </c>
+      <c r="D122" s="18">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>7</v>
+      </c>
+      <c r="F122" t="s">
+        <v>2</v>
+      </c>
+      <c r="G122" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="H122" t="s">
+        <v>448</v>
+      </c>
+      <c r="I122" t="s">
+        <v>347</v>
+      </c>
+      <c r="J122" t="s">
+        <v>347</v>
+      </c>
+      <c r="K122" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>531</v>
+      </c>
+      <c r="B123">
+        <v>120</v>
+      </c>
+      <c r="C123">
+        <v>180</v>
+      </c>
+      <c r="D123" s="18">
         <v>3</v>
       </c>
-      <c r="E120">
-        <v>9</v>
-      </c>
-      <c r="F120" s="20">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G120" s="20" t="s">
+      <c r="E123">
+        <v>15</v>
+      </c>
+      <c r="F123" t="s">
+        <v>2</v>
+      </c>
+      <c r="G123" s="18">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="H123" t="s">
         <v>377</v>
       </c>
-      <c r="H120" t="s">
-        <v>347</v>
-      </c>
-      <c r="I120" t="s">
-        <v>347</v>
-      </c>
-      <c r="J120" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="B121">
-        <v>120</v>
-      </c>
-      <c r="C121">
-        <v>180</v>
-      </c>
-      <c r="D121" s="20">
-        <v>3</v>
-      </c>
-      <c r="E121">
-        <v>15</v>
-      </c>
-      <c r="F121" s="20">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="G121" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="H121" t="s">
+      <c r="I123" t="s">
         <v>378</v>
       </c>
-      <c r="I121" t="s">
-        <v>347</v>
-      </c>
-      <c r="J121" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="B122">
-        <v>24</v>
-      </c>
-      <c r="C122">
-        <v>36</v>
-      </c>
-      <c r="D122" s="20">
-        <v>3</v>
-      </c>
-      <c r="E122">
-        <v>6</v>
-      </c>
-      <c r="F122" s="21">
-        <v>0.14166666666666666</v>
-      </c>
-      <c r="G122" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="H122" t="s">
-        <v>378</v>
-      </c>
-      <c r="I122" t="s">
-        <v>347</v>
-      </c>
-      <c r="J122" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="B123">
-        <v>12</v>
-      </c>
-      <c r="C123">
-        <v>18</v>
-      </c>
-      <c r="D123" s="20">
-        <v>3</v>
-      </c>
-      <c r="E123">
-        <v>3</v>
-      </c>
-      <c r="F123" s="21">
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="G123" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="H123" t="s">
-        <v>347</v>
-      </c>
-      <c r="I123" t="s">
-        <v>347</v>
-      </c>
       <c r="J123" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="19" t="s">
+      <c r="K123" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>332</v>
       </c>
       <c r="B125" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="19" t="s">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>535</v>
       </c>
       <c r="B126">
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="19" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>377</v>
       </c>
       <c r="B127">
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="19" t="s">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>380</v>
       </c>
       <c r="B128">
@@ -12037,7 +12408,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="19" t="s">
+      <c r="A129" t="s">
         <v>536</v>
       </c>
       <c r="B129" t="s">
@@ -12045,7 +12416,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="19" t="s">
+      <c r="A130" t="s">
         <v>538</v>
       </c>
       <c r="B130">
@@ -12053,7 +12424,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="19" t="s">
+      <c r="A131" t="s">
         <v>539</v>
       </c>
       <c r="B131">
@@ -12061,17 +12432,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J123" xr:uid="{4847D633-DD0F-4FBA-9BE8-9FCC37D3DF7C}">
-    <filterColumn colId="8">
+  <autoFilter ref="A1:K123" xr:uid="{BB137C1E-EA94-4F09-A86A-4BD23B8A4736}">
+    <filterColumn colId="9">
       <filters>
         <filter val="yes"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:J108">
-      <sortCondition ref="C1:C123"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K123">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
